--- a/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
   <si>
     <t>Element</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>GWP [kg*CO2-eq/kg]</t>
+  </si>
+  <si>
+    <t>Income tax [%]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE40"/>
+  <dimension ref="A1:AE41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -791,55 +794,55 @@
         <v>55</v>
       </c>
       <c r="C4">
-        <v>0.2833923031579231</v>
+        <v>0.2534141143821412</v>
       </c>
       <c r="D4">
-        <v>-0.0116097503960975</v>
+        <v>0.00151221894312219</v>
       </c>
       <c r="E4">
-        <v>0.3332871435808714</v>
+        <v>0.3462222421382224</v>
       </c>
       <c r="F4">
-        <v>0.0003457589194575892</v>
+        <v>-0.01638940434789405</v>
       </c>
       <c r="G4">
-        <v>-0.2221464315494643</v>
+        <v>-0.1904705880567059</v>
       </c>
       <c r="I4">
-        <v>-0.07941702467017024</v>
+        <v>-0.06502854045828541</v>
       </c>
       <c r="J4">
-        <v>0.03349628127220779</v>
+        <v>0.05263217258706133</v>
       </c>
       <c r="K4">
-        <v>-0.1490561888305619</v>
+        <v>-0.1672140828761408</v>
       </c>
       <c r="L4">
-        <v>-0.1490561888305619</v>
+        <v>-0.1672140828761408</v>
       </c>
       <c r="M4">
-        <v>-0.1490561888305619</v>
+        <v>-0.1672140828761408</v>
       </c>
       <c r="N4">
-        <v>-0.1490561888305619</v>
+        <v>-0.1672140828761408</v>
       </c>
       <c r="O4">
-        <v>-0.1490561888305619</v>
+        <v>-0.1672140828761408</v>
       </c>
       <c r="P4">
-        <v>-0.02054791880547919</v>
+        <v>-0.04026879667868797</v>
       </c>
       <c r="Q4">
-        <v>0.04478381804783818</v>
+        <v>0.01984448061044481</v>
       </c>
       <c r="R4">
-        <v>0.04478381804783818</v>
+        <v>0.01984448061044481</v>
       </c>
       <c r="S4">
-        <v>0.04478381804783818</v>
+        <v>0.01984448061044481</v>
       </c>
       <c r="T4">
-        <v>0.04478381804783818</v>
+        <v>0.01984448061044481</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -848,55 +851,55 @@
         <v>56</v>
       </c>
       <c r="C5">
-        <v>-0.008526250777262507</v>
+        <v>-0.002123850909238509</v>
       </c>
       <c r="D5">
-        <v>-0.002939783177397832</v>
+        <v>0.0009778538137785381</v>
       </c>
       <c r="E5">
-        <v>0.009581422439814224</v>
+        <v>-0.00615360913353609</v>
       </c>
       <c r="F5">
-        <v>-0.01641297921212979</v>
+        <v>-0.000330443595304436</v>
       </c>
       <c r="G5">
-        <v>0.01900272664602726</v>
+        <v>0.004684081114840811</v>
       </c>
       <c r="I5">
-        <v>0.004288114890881149</v>
+        <v>0.001699639696996397</v>
       </c>
       <c r="J5">
-        <v>-0.009658745415253269</v>
+        <v>0.00918674126658576</v>
       </c>
       <c r="K5">
-        <v>-0.006960834153608341</v>
+        <v>0.002568873097688731</v>
       </c>
       <c r="L5">
-        <v>-0.006960834153608341</v>
+        <v>0.002568873097688731</v>
       </c>
       <c r="M5">
-        <v>-0.006960834153608341</v>
+        <v>0.002568873097688731</v>
       </c>
       <c r="N5">
-        <v>-0.006960834153608341</v>
+        <v>0.002568873097688731</v>
       </c>
       <c r="O5">
-        <v>-0.006960834153608341</v>
+        <v>0.002568873097688731</v>
       </c>
       <c r="P5">
-        <v>-0.01587587472275875</v>
+        <v>0.0002491566504915665</v>
       </c>
       <c r="Q5">
-        <v>-0.01156240176762402</v>
+        <v>-0.002419821060198211</v>
       </c>
       <c r="R5">
-        <v>-0.01156240176762402</v>
+        <v>-0.002419821060198211</v>
       </c>
       <c r="S5">
-        <v>-0.01156240176762402</v>
+        <v>-0.002419821060198211</v>
       </c>
       <c r="T5">
-        <v>-0.01156240176762402</v>
+        <v>-0.002419821060198211</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -905,55 +908,55 @@
         <v>57</v>
       </c>
       <c r="C6">
-        <v>0.2773734039857341</v>
+        <v>0.2012327226683273</v>
       </c>
       <c r="D6">
-        <v>0.005496748062967481</v>
+        <v>-0.02621256331012563</v>
       </c>
       <c r="E6">
-        <v>0.008679177254791772</v>
+        <v>0.02146144436261444</v>
       </c>
       <c r="F6">
-        <v>-0.005103286503032865</v>
+        <v>-0.01182765631027656</v>
       </c>
       <c r="G6">
-        <v>-0.002128385565283856</v>
+        <v>-0.001757904677579047</v>
       </c>
       <c r="I6">
-        <v>-0.4486156294541563</v>
+        <v>-0.46783199571432</v>
       </c>
       <c r="J6">
-        <v>-0.02822892345808042</v>
+        <v>-0.05387152708521787</v>
       </c>
       <c r="K6">
-        <v>-0.001067466622674666</v>
+        <v>-0.002556133417561334</v>
       </c>
       <c r="L6">
-        <v>-0.001067466622674666</v>
+        <v>-0.002556133417561334</v>
       </c>
       <c r="M6">
-        <v>-0.001067466622674666</v>
+        <v>-0.002556133417561334</v>
       </c>
       <c r="N6">
-        <v>-0.001067466622674666</v>
+        <v>-0.002556133417561334</v>
       </c>
       <c r="O6">
-        <v>-0.001067466622674666</v>
+        <v>-0.002556133417561334</v>
       </c>
       <c r="P6">
-        <v>-0.00356472205164722</v>
+        <v>-0.009672046356720464</v>
       </c>
       <c r="Q6">
-        <v>0.00208075403680754</v>
+        <v>0.003141932875419329</v>
       </c>
       <c r="R6">
-        <v>0.00208075403680754</v>
+        <v>0.003141932875419329</v>
       </c>
       <c r="S6">
-        <v>0.00208075403680754</v>
+        <v>0.003141932875419329</v>
       </c>
       <c r="T6">
-        <v>0.00208075403680754</v>
+        <v>0.003141932875419329</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -962,55 +965,55 @@
         <v>58</v>
       </c>
       <c r="C7">
-        <v>0.11068800333888</v>
+        <v>0.0877666706896667</v>
       </c>
       <c r="D7">
-        <v>-0.003539119187391192</v>
+        <v>0.02194901197549012</v>
       </c>
       <c r="E7">
-        <v>-0.01465393269853933</v>
+        <v>-0.02334661489746615</v>
       </c>
       <c r="F7">
-        <v>-0.0044218799842188</v>
+        <v>0.003388116705881167</v>
       </c>
       <c r="G7">
-        <v>0.003464783614647836</v>
+        <v>-0.006341108595411087</v>
       </c>
       <c r="I7">
-        <v>-0.2297374712093747</v>
+        <v>-0.2017711247297113</v>
       </c>
       <c r="J7">
-        <v>-0.01334762363916018</v>
+        <v>-0.02587602129708371</v>
       </c>
       <c r="K7">
-        <v>0.02181522669815227</v>
+        <v>0.03296107231761072</v>
       </c>
       <c r="L7">
-        <v>0.02181522669815227</v>
+        <v>0.03296107231761072</v>
       </c>
       <c r="M7">
-        <v>0.02181522669815227</v>
+        <v>0.03296107231761072</v>
       </c>
       <c r="N7">
-        <v>0.02181522669815227</v>
+        <v>0.03296107231761072</v>
       </c>
       <c r="O7">
-        <v>0.02181522669815227</v>
+        <v>0.03296107231761072</v>
       </c>
       <c r="P7">
-        <v>0.001217002440170024</v>
+        <v>0.009666675768666758</v>
       </c>
       <c r="Q7">
-        <v>0.01263143794231438</v>
+        <v>0.02279817628798176</v>
       </c>
       <c r="R7">
-        <v>0.01263143794231438</v>
+        <v>0.02279817628798176</v>
       </c>
       <c r="S7">
-        <v>0.01263143794231438</v>
+        <v>0.02279817628798176</v>
       </c>
       <c r="T7">
-        <v>0.01263143794231438</v>
+        <v>0.02279817628798176</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -1019,55 +1022,55 @@
         <v>59</v>
       </c>
       <c r="C8">
-        <v>0.3736591452285914</v>
+        <v>0.3017432058654321</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.001265979852659798</v>
+        <v>0.003781856653818567</v>
       </c>
       <c r="F8">
-        <v>-0.005734211109342111</v>
+        <v>-0.003765547885655479</v>
       </c>
       <c r="G8">
-        <v>0.02517492669574927</v>
+        <v>0.02303633245436332</v>
       </c>
       <c r="I8">
-        <v>0.7825463444054634</v>
+        <v>0.7793887314418873</v>
       </c>
       <c r="J8">
-        <v>0.05383673466722628</v>
+        <v>0.06058427026755956</v>
       </c>
       <c r="K8">
-        <v>-0.02924877631648776</v>
+        <v>-0.03255686560956866</v>
       </c>
       <c r="L8">
-        <v>-0.02924877631648776</v>
+        <v>-0.03255686560956866</v>
       </c>
       <c r="M8">
-        <v>-0.02924877631648776</v>
+        <v>-0.03255686560956866</v>
       </c>
       <c r="N8">
-        <v>-0.02924877631648776</v>
+        <v>-0.03255686560956866</v>
       </c>
       <c r="O8">
-        <v>-0.02924877631648776</v>
+        <v>-0.03255686560956866</v>
       </c>
       <c r="P8">
-        <v>-0.01121723752017238</v>
+        <v>-0.01044050308440503</v>
       </c>
       <c r="Q8">
-        <v>-0.03600489384004894</v>
+        <v>-0.03461261855812618</v>
       </c>
       <c r="R8">
-        <v>-0.03600489384004894</v>
+        <v>-0.03461261855812618</v>
       </c>
       <c r="S8">
-        <v>-0.03600489384004894</v>
+        <v>-0.03461261855812618</v>
       </c>
       <c r="T8">
-        <v>-0.03600489384004894</v>
+        <v>-0.03461261855812618</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -1078,55 +1081,55 @@
         <v>60</v>
       </c>
       <c r="C9">
-        <v>0.01239125514391255</v>
+        <v>0.006181124365811244</v>
       </c>
       <c r="D9">
-        <v>0.02306001840260018</v>
+        <v>-0.009849915098499151</v>
       </c>
       <c r="E9">
-        <v>-0.00293547898135479</v>
+        <v>0.01582049079820491</v>
       </c>
       <c r="F9">
-        <v>0.008633401622334015</v>
+        <v>-0.01168299161682992</v>
       </c>
       <c r="G9">
-        <v>-0.01179413248594133</v>
+        <v>0.007438139858381398</v>
       </c>
       <c r="I9">
-        <v>0.01429821136698211</v>
+        <v>-0.004035834256358342</v>
       </c>
       <c r="J9">
-        <v>-0.01052663820017173</v>
+        <v>0.002262510411145777</v>
       </c>
       <c r="K9">
-        <v>-0.001706756393067564</v>
+        <v>-0.004785323411853234</v>
       </c>
       <c r="L9">
-        <v>-0.001706756393067564</v>
+        <v>-0.004785323411853234</v>
       </c>
       <c r="M9">
-        <v>-0.001706756393067564</v>
+        <v>-0.004785323411853234</v>
       </c>
       <c r="N9">
-        <v>-0.001706756393067564</v>
+        <v>-0.004785323411853234</v>
       </c>
       <c r="O9">
-        <v>-0.001706756393067564</v>
+        <v>-0.004785323411853234</v>
       </c>
       <c r="P9">
-        <v>0.008048689364486895</v>
+        <v>-0.01170764649307647</v>
       </c>
       <c r="Q9">
-        <v>0.002215078078150781</v>
+        <v>-0.004629160546291605</v>
       </c>
       <c r="R9">
-        <v>0.002215078078150781</v>
+        <v>-0.004629160546291605</v>
       </c>
       <c r="S9">
-        <v>0.002215078078150781</v>
+        <v>-0.004629160546291605</v>
       </c>
       <c r="T9">
-        <v>0.002215078078150781</v>
+        <v>-0.004629160546291605</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -1137,55 +1140,55 @@
         <v>60</v>
       </c>
       <c r="C10">
-        <v>0.3591143443711434</v>
+        <v>0.3799692724156927</v>
       </c>
       <c r="D10">
-        <v>-0.006359613351596133</v>
+        <v>-0.006061106124611061</v>
       </c>
       <c r="E10">
-        <v>-0.0008620379966203799</v>
+        <v>0.01060671934606719</v>
       </c>
       <c r="F10">
-        <v>6.607220466072206E-05</v>
+        <v>-0.005333016317330163</v>
       </c>
       <c r="G10">
-        <v>0.0009709811377098114</v>
+        <v>-0.0002691923066919231</v>
       </c>
       <c r="I10">
-        <v>-0.0002744581467445815</v>
+        <v>-0.0140655200246552</v>
       </c>
       <c r="J10">
-        <v>-0.004414542213363837</v>
+        <v>0.00196574608679818</v>
       </c>
       <c r="K10">
-        <v>-0.01153613722336137</v>
+        <v>0.0002682707066827071</v>
       </c>
       <c r="L10">
-        <v>-0.01153613722336137</v>
+        <v>0.0002682707066827071</v>
       </c>
       <c r="M10">
-        <v>-0.01153613722336137</v>
+        <v>0.0002682707066827071</v>
       </c>
       <c r="N10">
-        <v>-0.01153613722336137</v>
+        <v>0.0002682707066827071</v>
       </c>
       <c r="O10">
-        <v>-0.01153613722336137</v>
+        <v>0.0002682707066827071</v>
       </c>
       <c r="P10">
-        <v>-0.0001636652056366521</v>
+        <v>-0.005357742329577424</v>
       </c>
       <c r="Q10">
-        <v>-0.01070229320302293</v>
+        <v>0.003858345866583459</v>
       </c>
       <c r="R10">
-        <v>-0.01070229320302293</v>
+        <v>0.003858345866583459</v>
       </c>
       <c r="S10">
-        <v>-0.01070229320302293</v>
+        <v>0.003858345866583459</v>
       </c>
       <c r="T10">
-        <v>-0.01070229320302293</v>
+        <v>0.003858345866583459</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -1196,55 +1199,55 @@
         <v>60</v>
       </c>
       <c r="C11">
-        <v>0.1975281677232817</v>
+        <v>0.503592591799926</v>
       </c>
       <c r="D11">
-        <v>-0.002171633421716334</v>
+        <v>-1.081171210811712E-05</v>
       </c>
       <c r="E11">
-        <v>-0.02147062667870626</v>
+        <v>-0.02809038516490385</v>
       </c>
       <c r="F11">
-        <v>0.02340613968606139</v>
+        <v>0.02342076916220769</v>
       </c>
       <c r="G11">
-        <v>-0.02274062560740626</v>
+        <v>-0.01997850394378504</v>
       </c>
       <c r="I11">
-        <v>-0.009224249348242494</v>
+        <v>-0.002293674802936748</v>
       </c>
       <c r="J11">
-        <v>0.001496483001377859</v>
+        <v>-0.007466117221378617</v>
       </c>
       <c r="K11">
-        <v>0.007764897977648979</v>
+        <v>0.01368898468088985</v>
       </c>
       <c r="L11">
-        <v>0.007764897977648979</v>
+        <v>0.01368898468088985</v>
       </c>
       <c r="M11">
-        <v>0.007764897977648979</v>
+        <v>0.01368898468088985</v>
       </c>
       <c r="N11">
-        <v>0.007764897977648979</v>
+        <v>0.01368898468088985</v>
       </c>
       <c r="O11">
-        <v>0.007764897977648979</v>
+        <v>0.01368898468088985</v>
       </c>
       <c r="P11">
-        <v>0.02319104772391048</v>
+        <v>0.02395801576758016</v>
       </c>
       <c r="Q11">
-        <v>0.0110701299987013</v>
+        <v>0.01456810200168102</v>
       </c>
       <c r="R11">
-        <v>0.0110701299987013</v>
+        <v>0.01456810200168102</v>
       </c>
       <c r="S11">
-        <v>0.0110701299987013</v>
+        <v>0.01456810200168102</v>
       </c>
       <c r="T11">
-        <v>0.0110701299987013</v>
+        <v>0.01456810200168102</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -1255,55 +1258,55 @@
         <v>61</v>
       </c>
       <c r="C12">
-        <v>0.001907453563074536</v>
+        <v>0.02194931703949317</v>
       </c>
       <c r="D12">
-        <v>-0.003981231303812314</v>
+        <v>0.01840892352408923</v>
       </c>
       <c r="E12">
-        <v>0.00866070296660703</v>
+        <v>0.002375974379759744</v>
       </c>
       <c r="F12">
-        <v>-0.006522952553229526</v>
+        <v>0.005758472325584723</v>
       </c>
       <c r="G12">
-        <v>0.005577300727773008</v>
+        <v>-0.01053388719333887</v>
       </c>
       <c r="I12">
-        <v>-0.004361817583618176</v>
+        <v>0.007676774956767749</v>
       </c>
       <c r="J12">
-        <v>0.0137604314614022</v>
+        <v>-0.007795922034210257</v>
       </c>
       <c r="K12">
-        <v>0.004063077640630776</v>
+        <v>-0.01293499065334991</v>
       </c>
       <c r="L12">
-        <v>0.004063077640630776</v>
+        <v>-0.01293499065334991</v>
       </c>
       <c r="M12">
-        <v>0.004063077640630776</v>
+        <v>-0.01293499065334991</v>
       </c>
       <c r="N12">
-        <v>0.004063077640630776</v>
+        <v>-0.01293499065334991</v>
       </c>
       <c r="O12">
-        <v>0.004063077640630776</v>
+        <v>-0.01293499065334991</v>
       </c>
       <c r="P12">
-        <v>-0.006346786539467866</v>
+        <v>0.004492248920922489</v>
       </c>
       <c r="Q12">
-        <v>0.003304108425041085</v>
+        <v>-0.004149038609490387</v>
       </c>
       <c r="R12">
-        <v>0.003304108425041085</v>
+        <v>-0.004149038609490387</v>
       </c>
       <c r="S12">
-        <v>0.003304108425041085</v>
+        <v>-0.004149038609490387</v>
       </c>
       <c r="T12">
-        <v>0.003304108425041085</v>
+        <v>-0.004149038609490387</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -1314,55 +1317,55 @@
         <v>62</v>
       </c>
       <c r="C13">
-        <v>0.1351337561113376</v>
+        <v>0.1002293370302934</v>
       </c>
       <c r="D13">
-        <v>-0.002156053365560533</v>
+        <v>-0.02004360854043609</v>
       </c>
       <c r="E13">
-        <v>-0.01130461049304611</v>
+        <v>0.005122499439224994</v>
       </c>
       <c r="F13">
-        <v>0.008212325266123253</v>
+        <v>-0.002100138045001381</v>
       </c>
       <c r="G13">
-        <v>-0.00661375911013759</v>
+        <v>-0.000607033290070333</v>
       </c>
       <c r="I13">
-        <v>0.0002031744860317449</v>
+        <v>-0.01042751066027511</v>
       </c>
       <c r="J13">
-        <v>-0.004007753615183677</v>
+        <v>-0.009242608071404208</v>
       </c>
       <c r="K13">
-        <v>0.002853364792533648</v>
+        <v>0.02103777319837773</v>
       </c>
       <c r="L13">
-        <v>0.002853364792533648</v>
+        <v>0.02103777319837773</v>
       </c>
       <c r="M13">
-        <v>0.002853364792533648</v>
+        <v>0.02103777319837773</v>
       </c>
       <c r="N13">
-        <v>0.002853364792533648</v>
+        <v>0.02103777319837773</v>
       </c>
       <c r="O13">
-        <v>0.002853364792533648</v>
+        <v>0.02103777319837773</v>
       </c>
       <c r="P13">
-        <v>0.008567958625679587</v>
+        <v>-0.001519248591192486</v>
       </c>
       <c r="Q13">
-        <v>0.002307224915072249</v>
+        <v>0.01853769344937694</v>
       </c>
       <c r="R13">
-        <v>0.002307224915072249</v>
+        <v>0.01853769344937694</v>
       </c>
       <c r="S13">
-        <v>0.002307224915072249</v>
+        <v>0.01853769344937694</v>
       </c>
       <c r="T13">
-        <v>0.002307224915072249</v>
+        <v>0.01853769344937694</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -1371,55 +1374,55 @@
         <v>63</v>
       </c>
       <c r="C14">
-        <v>-0.4520839591168396</v>
+        <v>-0.3642480629704807</v>
       </c>
       <c r="D14">
-        <v>0.0122786597307866</v>
+        <v>-0.003031562910315629</v>
       </c>
       <c r="E14">
-        <v>0.003597395519973955</v>
+        <v>-0.001570655247706553</v>
       </c>
       <c r="F14">
-        <v>-0.004914752881147529</v>
+        <v>0.003647275440472754</v>
       </c>
       <c r="G14">
-        <v>0.005981518859815189</v>
+        <v>-0.005460724578607246</v>
       </c>
       <c r="I14">
-        <v>0.02032800075528001</v>
+        <v>-0.01352991891929919</v>
       </c>
       <c r="J14">
-        <v>-0.001167641381998683</v>
+        <v>0.006025321492270959</v>
       </c>
       <c r="K14">
-        <v>0.002528841193288412</v>
+        <v>0.008411929872119297</v>
       </c>
       <c r="L14">
-        <v>0.002528841193288412</v>
+        <v>0.008411929872119297</v>
       </c>
       <c r="M14">
-        <v>0.002528841193288412</v>
+        <v>0.008411929872119297</v>
       </c>
       <c r="N14">
-        <v>0.002528841193288412</v>
+        <v>0.008411929872119297</v>
       </c>
       <c r="O14">
-        <v>0.002528841193288412</v>
+        <v>0.008411929872119297</v>
       </c>
       <c r="P14">
-        <v>-0.00492838497728385</v>
+        <v>0.003807465674074657</v>
       </c>
       <c r="Q14">
-        <v>0.0005663854736638546</v>
+        <v>0.01003509418035094</v>
       </c>
       <c r="R14">
-        <v>0.0005663854736638546</v>
+        <v>0.01003509418035094</v>
       </c>
       <c r="S14">
-        <v>0.0005663854736638546</v>
+        <v>0.01003509418035094</v>
       </c>
       <c r="T14">
-        <v>0.0005663854736638546</v>
+        <v>0.01003509418035094</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -1430,55 +1433,55 @@
         <v>64</v>
       </c>
       <c r="C15">
-        <v>0.03248575975285759</v>
+        <v>0.03005537388055374</v>
       </c>
       <c r="D15">
-        <v>-0.004798577807985778</v>
+        <v>-0.002824025776240258</v>
       </c>
       <c r="E15">
-        <v>-0.01103660310236603</v>
+        <v>0.00822272793422728</v>
       </c>
       <c r="F15">
-        <v>0.0106638100786381</v>
+        <v>-0.00794651791946518</v>
       </c>
       <c r="G15">
-        <v>-0.009436603054366031</v>
+        <v>0.007002493918024939</v>
       </c>
       <c r="I15">
-        <v>-0.00725289706852897</v>
+        <v>-0.0007613290396132903</v>
       </c>
       <c r="J15">
-        <v>0.01208983632423516</v>
+        <v>0.01364649696192118</v>
       </c>
       <c r="K15">
-        <v>-0.001454452814544528</v>
+        <v>-0.01006569588465696</v>
       </c>
       <c r="L15">
-        <v>-0.001454452814544528</v>
+        <v>-0.01006569588465696</v>
       </c>
       <c r="M15">
-        <v>-0.001454452814544528</v>
+        <v>-0.01006569588465696</v>
       </c>
       <c r="N15">
-        <v>-0.001454452814544528</v>
+        <v>-0.01006569588465696</v>
       </c>
       <c r="O15">
-        <v>-0.001454452814544528</v>
+        <v>-0.01006569588465696</v>
       </c>
       <c r="P15">
-        <v>0.01058785830987858</v>
+        <v>-0.007944985483449855</v>
       </c>
       <c r="Q15">
-        <v>-0.001002227626022276</v>
+        <v>-0.01072140407921404</v>
       </c>
       <c r="R15">
-        <v>-0.001002227626022276</v>
+        <v>-0.01072140407921404</v>
       </c>
       <c r="S15">
-        <v>-0.001002227626022276</v>
+        <v>-0.01072140407921404</v>
       </c>
       <c r="T15">
-        <v>-0.001002227626022276</v>
+        <v>-0.01072140407921404</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -1489,55 +1492,55 @@
         <v>64</v>
       </c>
       <c r="C16">
-        <v>-0.04789259140692591</v>
+        <v>-0.03209350107293501</v>
       </c>
       <c r="D16">
-        <v>-0.02848500249285003</v>
+        <v>0.0007758225677582258</v>
       </c>
       <c r="E16">
-        <v>0.01160176107201761</v>
+        <v>-0.02648603205686032</v>
       </c>
       <c r="F16">
-        <v>-0.006138177085381772</v>
+        <v>0.02230616683906167</v>
       </c>
       <c r="G16">
-        <v>-0.0003685974636859746</v>
+        <v>-0.01952871273928713</v>
       </c>
       <c r="I16">
-        <v>-0.01889766226497662</v>
+        <v>-0.003580281767802818</v>
       </c>
       <c r="J16">
-        <v>-0.0001734635597825115</v>
+        <v>0.002466220284130127</v>
       </c>
       <c r="K16">
-        <v>-0.008854129156541291</v>
+        <v>0.002018524772185248</v>
       </c>
       <c r="L16">
-        <v>-0.008854129156541291</v>
+        <v>0.002018524772185248</v>
       </c>
       <c r="M16">
-        <v>-0.008854129156541291</v>
+        <v>0.002018524772185248</v>
       </c>
       <c r="N16">
-        <v>-0.008854129156541291</v>
+        <v>0.002018524772185248</v>
       </c>
       <c r="O16">
-        <v>-0.008854129156541291</v>
+        <v>0.002018524772185248</v>
       </c>
       <c r="P16">
-        <v>-0.006752958343529584</v>
+        <v>0.02227121437871214</v>
       </c>
       <c r="Q16">
-        <v>-0.00386252797462528</v>
+        <v>0.004811796348117964</v>
       </c>
       <c r="R16">
-        <v>-0.00386252797462528</v>
+        <v>0.004811796348117964</v>
       </c>
       <c r="S16">
-        <v>-0.00386252797462528</v>
+        <v>0.004811796348117964</v>
       </c>
       <c r="T16">
-        <v>-0.00386252797462528</v>
+        <v>0.004811796348117964</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1548,55 +1551,55 @@
         <v>65</v>
       </c>
       <c r="C17">
-        <v>-0.02129261108092611</v>
+        <v>0.01829874139498741</v>
       </c>
       <c r="D17">
-        <v>0.003260992484609925</v>
+        <v>0.01176501519365015</v>
       </c>
       <c r="E17">
-        <v>-0.009014051226140511</v>
+        <v>0.01378725808187258</v>
       </c>
       <c r="F17">
-        <v>0.01112492063124921</v>
+        <v>-0.01355231066752311</v>
       </c>
       <c r="G17">
-        <v>-0.01131768212917682</v>
+        <v>0.0131779901397799</v>
       </c>
       <c r="I17">
-        <v>0.005351425385514254</v>
+        <v>0.008626903838269038</v>
       </c>
       <c r="J17">
-        <v>0.007369750263731554</v>
+        <v>0.01328772236066513</v>
       </c>
       <c r="K17">
-        <v>0.007998699583986996</v>
+        <v>-0.01552293329922933</v>
       </c>
       <c r="L17">
-        <v>0.007998699583986996</v>
+        <v>-0.01552293329922933</v>
       </c>
       <c r="M17">
-        <v>0.007998699583986996</v>
+        <v>-0.01552293329922933</v>
       </c>
       <c r="N17">
-        <v>0.007998699583986996</v>
+        <v>-0.01552293329922933</v>
       </c>
       <c r="O17">
-        <v>0.007998699583986996</v>
+        <v>-0.01552293329922933</v>
       </c>
       <c r="P17">
-        <v>0.01126622939266229</v>
+        <v>-0.01373233645732336</v>
       </c>
       <c r="Q17">
-        <v>0.008205602626056026</v>
+        <v>-0.01582477428224774</v>
       </c>
       <c r="R17">
-        <v>0.008205602626056026</v>
+        <v>-0.01582477428224774</v>
       </c>
       <c r="S17">
-        <v>0.008205602626056026</v>
+        <v>-0.01582477428224774</v>
       </c>
       <c r="T17">
-        <v>0.008205602626056026</v>
+        <v>-0.01582477428224774</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1607,55 +1610,55 @@
         <v>64</v>
       </c>
       <c r="C18">
-        <v>-0.008638048898380489</v>
+        <v>0.01053734864137349</v>
       </c>
       <c r="D18">
-        <v>-0.001949569399495694</v>
+        <v>-0.001414514918145149</v>
       </c>
       <c r="E18">
-        <v>-0.004831453428314533</v>
+        <v>0.001618847524188475</v>
       </c>
       <c r="F18">
-        <v>0.005061683126616831</v>
+        <v>0.001011194482111945</v>
       </c>
       <c r="G18">
-        <v>-0.005902531271025313</v>
+        <v>-0.002852564428525644</v>
       </c>
       <c r="I18">
-        <v>0.002594398873943989</v>
+        <v>-0.009745361257453613</v>
       </c>
       <c r="J18">
-        <v>0.005366963197150914</v>
+        <v>0.005010106255398056</v>
       </c>
       <c r="K18">
-        <v>0.0006440838064408381</v>
+        <v>0.001998466435984664</v>
       </c>
       <c r="L18">
-        <v>0.0006440838064408381</v>
+        <v>0.001998466435984664</v>
       </c>
       <c r="M18">
-        <v>0.0006440838064408381</v>
+        <v>0.001998466435984664</v>
       </c>
       <c r="N18">
-        <v>0.0006440838064408381</v>
+        <v>0.001998466435984664</v>
       </c>
       <c r="O18">
-        <v>0.0006440838064408381</v>
+        <v>0.001998466435984664</v>
       </c>
       <c r="P18">
-        <v>0.005025527582255275</v>
+        <v>0.0008730758967307589</v>
       </c>
       <c r="Q18">
-        <v>0.001256335404563354</v>
+        <v>0.004098942532989425</v>
       </c>
       <c r="R18">
-        <v>0.001256335404563354</v>
+        <v>0.004098942532989425</v>
       </c>
       <c r="S18">
-        <v>0.001256335404563354</v>
+        <v>0.004098942532989425</v>
       </c>
       <c r="T18">
-        <v>0.001256335404563354</v>
+        <v>0.004098942532989425</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1664,55 +1667,55 @@
         <v>66</v>
       </c>
       <c r="C19">
-        <v>0.006785925739859257</v>
+        <v>0.01938691382586914</v>
       </c>
       <c r="D19">
-        <v>-0.001040220934402209</v>
+        <v>0.01707790277077903</v>
       </c>
       <c r="E19">
-        <v>-0.01064475891444759</v>
+        <v>0.004225419150254191</v>
       </c>
       <c r="F19">
-        <v>0.009365550345655503</v>
+        <v>-0.0002982498629824987</v>
       </c>
       <c r="G19">
-        <v>-0.00769846093698461</v>
+        <v>-0.002045624120456241</v>
       </c>
       <c r="I19">
-        <v>0.003251146484511465</v>
+        <v>0.003072728670727287</v>
       </c>
       <c r="J19">
-        <v>0.0005684113858409954</v>
+        <v>-0.01309475824183821</v>
       </c>
       <c r="K19">
-        <v>0.00853801705338017</v>
+        <v>-0.009664752684647527</v>
       </c>
       <c r="L19">
-        <v>0.00853801705338017</v>
+        <v>-0.009664752684647527</v>
       </c>
       <c r="M19">
-        <v>0.00853801705338017</v>
+        <v>-0.009664752684647527</v>
       </c>
       <c r="N19">
-        <v>0.00853801705338017</v>
+        <v>-0.009664752684647527</v>
       </c>
       <c r="O19">
-        <v>0.00853801705338017</v>
+        <v>-0.009664752684647527</v>
       </c>
       <c r="P19">
-        <v>0.009294635444946353</v>
+        <v>-0.0007398226993982269</v>
       </c>
       <c r="Q19">
-        <v>0.007668315988683161</v>
+        <v>-0.007852324146523241</v>
       </c>
       <c r="R19">
-        <v>0.007668315988683161</v>
+        <v>-0.007852324146523241</v>
       </c>
       <c r="S19">
-        <v>0.007668315988683161</v>
+        <v>-0.007852324146523241</v>
       </c>
       <c r="T19">
-        <v>0.007668315988683161</v>
+        <v>-0.007852324146523241</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1723,55 +1726,55 @@
         <v>67</v>
       </c>
       <c r="C20">
-        <v>0.008254920214549202</v>
+        <v>0.0007348962073489622</v>
       </c>
       <c r="D20">
-        <v>0.008694975218949751</v>
+        <v>-0.007641676312416763</v>
       </c>
       <c r="E20">
-        <v>-0.001387345549873455</v>
+        <v>0.002443706652437067</v>
       </c>
       <c r="F20">
-        <v>0.003358976901589769</v>
+        <v>-0.007075966294759662</v>
       </c>
       <c r="G20">
-        <v>-0.002783969247839693</v>
+        <v>0.009510582143105822</v>
       </c>
       <c r="I20">
-        <v>-0.0004868742648687426</v>
+        <v>-0.01320343633203436</v>
       </c>
       <c r="J20">
-        <v>0.002343114240077842</v>
+        <v>0.0002146991371453423</v>
       </c>
       <c r="K20">
-        <v>0.001932996727329967</v>
+        <v>0.0006004884420048843</v>
       </c>
       <c r="L20">
-        <v>0.001932996727329967</v>
+        <v>0.0006004884420048843</v>
       </c>
       <c r="M20">
-        <v>0.001932996727329967</v>
+        <v>0.0006004884420048843</v>
       </c>
       <c r="N20">
-        <v>0.001932996727329967</v>
+        <v>0.0006004884420048843</v>
       </c>
       <c r="O20">
-        <v>0.001932996727329967</v>
+        <v>0.0006004884420048843</v>
       </c>
       <c r="P20">
-        <v>0.003186783595867836</v>
+        <v>-0.006514879673148796</v>
       </c>
       <c r="Q20">
-        <v>0.002948393609483936</v>
+        <v>-0.004267361730673617</v>
       </c>
       <c r="R20">
-        <v>0.002948393609483936</v>
+        <v>-0.004267361730673617</v>
       </c>
       <c r="S20">
-        <v>0.002948393609483936</v>
+        <v>-0.004267361730673617</v>
       </c>
       <c r="T20">
-        <v>0.002948393609483936</v>
+        <v>-0.004267361730673617</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1782,55 +1785,55 @@
         <v>68</v>
       </c>
       <c r="C21">
-        <v>-0.004630220278302203</v>
+        <v>0.01469883473098835</v>
       </c>
       <c r="D21">
-        <v>-0.000906212205062122</v>
+        <v>0.004832216064322161</v>
       </c>
       <c r="E21">
-        <v>0.005722524609225246</v>
+        <v>0.01597924590379246</v>
       </c>
       <c r="F21">
-        <v>-0.002485615032856151</v>
+        <v>-0.01646164197261642</v>
       </c>
       <c r="G21">
-        <v>0.0003895211558952115</v>
+        <v>0.01669764481097645</v>
       </c>
       <c r="I21">
-        <v>-0.002042108828421088</v>
+        <v>0.01450124726501247</v>
       </c>
       <c r="J21">
-        <v>-0.002806713070841784</v>
+        <v>0.01006734346548658</v>
       </c>
       <c r="K21">
-        <v>-0.0009706905697069057</v>
+        <v>-0.004576110621761107</v>
       </c>
       <c r="L21">
-        <v>-0.0009706905697069057</v>
+        <v>-0.004576110621761107</v>
       </c>
       <c r="M21">
-        <v>-0.0009706905697069057</v>
+        <v>-0.004576110621761107</v>
       </c>
       <c r="N21">
-        <v>-0.0009706905697069057</v>
+        <v>-0.004576110621761107</v>
       </c>
       <c r="O21">
-        <v>-0.0009706905697069057</v>
+        <v>-0.004576110621761107</v>
       </c>
       <c r="P21">
-        <v>-0.0027384700113847</v>
+        <v>-0.0163489796474898</v>
       </c>
       <c r="Q21">
-        <v>-0.0006549699785496997</v>
+        <v>-0.01035231653552316</v>
       </c>
       <c r="R21">
-        <v>-0.0006549699785496997</v>
+        <v>-0.01035231653552316</v>
       </c>
       <c r="S21">
-        <v>-0.0006549699785496997</v>
+        <v>-0.01035231653552316</v>
       </c>
       <c r="T21">
-        <v>-0.0006549699785496997</v>
+        <v>-0.01035231653552316</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1839,55 +1842,55 @@
         <v>69</v>
       </c>
       <c r="C22">
-        <v>0.01298151195381512</v>
+        <v>-0.01514671129946711</v>
       </c>
       <c r="D22">
-        <v>0.00435194299951943</v>
+        <v>-7.972794079727941E-05</v>
       </c>
       <c r="E22">
-        <v>0.0184726800767268</v>
+        <v>-0.01264396192243962</v>
       </c>
       <c r="F22">
-        <v>-0.02097989815779898</v>
+        <v>0.006788190703881907</v>
       </c>
       <c r="G22">
-        <v>0.02013844757738448</v>
+        <v>-0.002181299757812998</v>
       </c>
       <c r="I22">
-        <v>0.01030178566301786</v>
+        <v>0.009439895290398953</v>
       </c>
       <c r="J22">
-        <v>0.01015446043434724</v>
+        <v>0.002066439912273345</v>
       </c>
       <c r="K22">
-        <v>0.01408959856489599</v>
+        <v>-0.00273150103531501</v>
       </c>
       <c r="L22">
-        <v>0.01408959856489599</v>
+        <v>-0.00273150103531501</v>
       </c>
       <c r="M22">
-        <v>0.01408959856489599</v>
+        <v>-0.00273150103531501</v>
       </c>
       <c r="N22">
-        <v>0.01408959856489599</v>
+        <v>-0.00273150103531501</v>
       </c>
       <c r="O22">
-        <v>0.01408959856489599</v>
+        <v>-0.00273150103531501</v>
       </c>
       <c r="P22">
-        <v>-0.02050873130508732</v>
+        <v>0.006675976326759763</v>
       </c>
       <c r="Q22">
-        <v>0.01017787146577872</v>
+        <v>-0.003054666726546668</v>
       </c>
       <c r="R22">
-        <v>0.01017787146577872</v>
+        <v>-0.003054666726546668</v>
       </c>
       <c r="S22">
-        <v>0.01017787146577872</v>
+        <v>-0.003054666726546668</v>
       </c>
       <c r="T22">
-        <v>0.01017787146577872</v>
+        <v>-0.003054666726546668</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1896,55 +1899,55 @@
         <v>70</v>
       </c>
       <c r="C23">
-        <v>-0.00283418902034189</v>
+        <v>0.003402512758025127</v>
       </c>
       <c r="D23">
-        <v>-0.01252184628521846</v>
+        <v>0.01001911825619118</v>
       </c>
       <c r="E23">
-        <v>-0.006269695538696956</v>
+        <v>0.00520190801201908</v>
       </c>
       <c r="F23">
-        <v>0.002802787576027876</v>
+        <v>-0.007237095396370954</v>
       </c>
       <c r="G23">
-        <v>-0.0002428118664281187</v>
+        <v>0.008045289944452898</v>
       </c>
       <c r="I23">
-        <v>-0.01006691340466913</v>
+        <v>-0.001195375727953757</v>
       </c>
       <c r="J23">
-        <v>-0.0006388808105651392</v>
+        <v>0.007670427742371766</v>
       </c>
       <c r="K23">
-        <v>0.002527442233274422</v>
+        <v>-0.002349959207499592</v>
       </c>
       <c r="L23">
-        <v>0.002527442233274422</v>
+        <v>-0.002349959207499592</v>
       </c>
       <c r="M23">
-        <v>0.002527442233274422</v>
+        <v>-0.002349959207499592</v>
       </c>
       <c r="N23">
-        <v>0.002527442233274422</v>
+        <v>-0.002349959207499592</v>
       </c>
       <c r="O23">
-        <v>0.002527442233274422</v>
+        <v>-0.002349959207499592</v>
       </c>
       <c r="P23">
-        <v>0.003194124367941243</v>
+        <v>-0.007191616823916168</v>
       </c>
       <c r="Q23">
-        <v>0.001025987518259875</v>
+        <v>-0.005140902411409024</v>
       </c>
       <c r="R23">
-        <v>0.001025987518259875</v>
+        <v>-0.005140902411409024</v>
       </c>
       <c r="S23">
-        <v>0.001025987518259875</v>
+        <v>-0.005140902411409024</v>
       </c>
       <c r="T23">
-        <v>0.001025987518259875</v>
+        <v>-0.005140902411409024</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1953,55 +1956,55 @@
         <v>71</v>
       </c>
       <c r="C24">
-        <v>0.002101503333015033</v>
+        <v>0.0005043613250436133</v>
       </c>
       <c r="D24">
-        <v>0.001710453641104536</v>
+        <v>-0.01110188474701885</v>
       </c>
       <c r="E24">
-        <v>0.006600923934009239</v>
+        <v>0.001872271638722716</v>
       </c>
       <c r="F24">
-        <v>-0.006813590720135908</v>
+        <v>-0.003283184552831845</v>
       </c>
       <c r="G24">
-        <v>0.006388786191887862</v>
+        <v>0.003061260234612602</v>
       </c>
       <c r="I24">
-        <v>0.003053866590538665</v>
+        <v>-0.009455678350556784</v>
       </c>
       <c r="J24">
-        <v>0.009908773655822559</v>
+        <v>-0.002814447425231655</v>
       </c>
       <c r="K24">
-        <v>0.001435531166355312</v>
+        <v>7.580191275801913E-05</v>
       </c>
       <c r="L24">
-        <v>0.001435531166355312</v>
+        <v>7.580191275801913E-05</v>
       </c>
       <c r="M24">
-        <v>0.001435531166355312</v>
+        <v>7.580191275801913E-05</v>
       </c>
       <c r="N24">
-        <v>0.001435531166355312</v>
+        <v>7.580191275801913E-05</v>
       </c>
       <c r="O24">
-        <v>0.001435531166355312</v>
+        <v>7.580191275801913E-05</v>
       </c>
       <c r="P24">
-        <v>-0.007085247094852472</v>
+        <v>-0.003030507822305078</v>
       </c>
       <c r="Q24">
-        <v>0.0001426294574262946</v>
+        <v>-0.001622441344224413</v>
       </c>
       <c r="R24">
-        <v>0.0001426294574262946</v>
+        <v>-0.001622441344224413</v>
       </c>
       <c r="S24">
-        <v>0.0001426294574262946</v>
+        <v>-0.001622441344224413</v>
       </c>
       <c r="T24">
-        <v>0.0001426294574262946</v>
+        <v>-0.001622441344224413</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2012,55 +2015,55 @@
         <v>72</v>
       </c>
       <c r="C25">
-        <v>-0.0002381552063815521</v>
+        <v>-0.009960148143601482</v>
       </c>
       <c r="D25">
-        <v>-0.007245772692457727</v>
+        <v>0.001704990857049909</v>
       </c>
       <c r="E25">
-        <v>0.009176287171762871</v>
+        <v>-0.01325625303656253</v>
       </c>
       <c r="F25">
-        <v>-0.005936688371366884</v>
+        <v>0.01168437111284371</v>
       </c>
       <c r="G25">
-        <v>0.005521022287210223</v>
+        <v>-0.01038091818780918</v>
       </c>
       <c r="I25">
-        <v>0.0003578202875782029</v>
+        <v>-0.005148683247486832</v>
       </c>
       <c r="J25">
-        <v>-0.012336025866765</v>
+        <v>-0.01225265032750133</v>
       </c>
       <c r="K25">
-        <v>0.0008989321769893217</v>
+        <v>0.0002410438104104381</v>
       </c>
       <c r="L25">
-        <v>0.0008989321769893217</v>
+        <v>0.0002410438104104381</v>
       </c>
       <c r="M25">
-        <v>0.0008989321769893217</v>
+        <v>0.0002410438104104381</v>
       </c>
       <c r="N25">
-        <v>0.0008989321769893217</v>
+        <v>0.0002410438104104381</v>
       </c>
       <c r="O25">
-        <v>0.0008989321769893217</v>
+        <v>0.0002410438104104381</v>
       </c>
       <c r="P25">
-        <v>-0.006164976841649769</v>
+        <v>0.01177217541372175</v>
       </c>
       <c r="Q25">
-        <v>0.001398542053985421</v>
+        <v>0.002729362959293629</v>
       </c>
       <c r="R25">
-        <v>0.001398542053985421</v>
+        <v>0.002729362959293629</v>
       </c>
       <c r="S25">
-        <v>0.001398542053985421</v>
+        <v>0.002729362959293629</v>
       </c>
       <c r="T25">
-        <v>0.001398542053985421</v>
+        <v>0.002729362959293629</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2069,55 +2072,55 @@
         <v>73</v>
       </c>
       <c r="C26">
-        <v>-0.009654292944542928</v>
+        <v>-0.001485395462853954</v>
       </c>
       <c r="D26">
-        <v>0.01007396478473965</v>
+        <v>-0.01081725564017256</v>
       </c>
       <c r="E26">
-        <v>-0.007363196305631963</v>
+        <v>-0.004029473200294732</v>
       </c>
       <c r="F26">
-        <v>0.01050953243709533</v>
+        <v>-0.001069293562692936</v>
       </c>
       <c r="G26">
-        <v>-0.01235019180350192</v>
+        <v>0.003420812674208126</v>
       </c>
       <c r="I26">
-        <v>0.01139364216593642</v>
+        <v>-0.009126352555263525</v>
       </c>
       <c r="J26">
-        <v>0.0004827802789610502</v>
+        <v>0.0161490922885842</v>
       </c>
       <c r="K26">
-        <v>0.01662874328228743</v>
+        <v>-0.01187318245073182</v>
       </c>
       <c r="L26">
-        <v>0.01662874328228743</v>
+        <v>-0.01187318245073182</v>
       </c>
       <c r="M26">
-        <v>0.01662874328228743</v>
+        <v>-0.01187318245073182</v>
       </c>
       <c r="N26">
-        <v>0.01662874328228743</v>
+        <v>-0.01187318245073182</v>
       </c>
       <c r="O26">
-        <v>0.01662874328228743</v>
+        <v>-0.01187318245073182</v>
       </c>
       <c r="P26">
-        <v>0.01057885473378855</v>
+        <v>-0.0007903424119034241</v>
       </c>
       <c r="Q26">
-        <v>0.01702623126226231</v>
+        <v>-0.01206118688461187</v>
       </c>
       <c r="R26">
-        <v>0.01702623126226231</v>
+        <v>-0.01206118688461187</v>
       </c>
       <c r="S26">
-        <v>0.01702623126226231</v>
+        <v>-0.01206118688461187</v>
       </c>
       <c r="T26">
-        <v>0.01702623126226231</v>
+        <v>-0.01206118688461187</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2128,55 +2131,55 @@
         <v>74</v>
       </c>
       <c r="C27">
-        <v>-0.001741804445418044</v>
+        <v>-0.0008212934242129343</v>
       </c>
       <c r="D27">
-        <v>0.002818360048183601</v>
+        <v>-0.001261675212616752</v>
       </c>
       <c r="E27">
-        <v>0.01345901430259014</v>
+        <v>0.007393372693933727</v>
       </c>
       <c r="F27">
-        <v>-0.01110137223901372</v>
+        <v>-0.003526867295268673</v>
       </c>
       <c r="G27">
-        <v>0.01061160947811609</v>
+        <v>0.0009524397455243976</v>
       </c>
       <c r="I27">
-        <v>0.01006538486865385</v>
+        <v>0.001303277713032777</v>
       </c>
       <c r="J27">
-        <v>0.005116741720579638</v>
+        <v>-0.01508806543704016</v>
       </c>
       <c r="K27">
-        <v>-0.01361702749617028</v>
+        <v>0.000634782702347827</v>
       </c>
       <c r="L27">
-        <v>-0.01361702749617028</v>
+        <v>0.000634782702347827</v>
       </c>
       <c r="M27">
-        <v>-0.01361702749617028</v>
+        <v>0.000634782702347827</v>
       </c>
       <c r="N27">
-        <v>-0.01361702749617028</v>
+        <v>0.000634782702347827</v>
       </c>
       <c r="O27">
-        <v>-0.01361702749617028</v>
+        <v>0.000634782702347827</v>
       </c>
       <c r="P27">
-        <v>-0.01151476191114762</v>
+        <v>-0.003496462270964623</v>
       </c>
       <c r="Q27">
-        <v>-0.01349291612692916</v>
+        <v>0.002259070594590706</v>
       </c>
       <c r="R27">
-        <v>-0.01349291612692916</v>
+        <v>0.002259070594590706</v>
       </c>
       <c r="S27">
-        <v>-0.01349291612692916</v>
+        <v>0.002259070594590706</v>
       </c>
       <c r="T27">
-        <v>-0.01349291612692916</v>
+        <v>0.002259070594590706</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2185,55 +2188,55 @@
         <v>75</v>
       </c>
       <c r="C28">
-        <v>-0.02146934501869345</v>
+        <v>0.002740852107408521</v>
       </c>
       <c r="D28">
-        <v>-0.01172729186127292</v>
+        <v>0.01474209685542097</v>
       </c>
       <c r="E28">
-        <v>-0.0131473497474735</v>
+        <v>0.0004823535768235357</v>
       </c>
       <c r="F28">
-        <v>0.0144101405641014</v>
+        <v>0.002447454780474548</v>
       </c>
       <c r="G28">
-        <v>-0.01227021487470215</v>
+        <v>-0.003980441211804412</v>
       </c>
       <c r="I28">
-        <v>-0.01899063760590637</v>
+        <v>0.00498071293380713</v>
       </c>
       <c r="J28">
-        <v>0.006701093192860435</v>
+        <v>-0.005036602393786225</v>
       </c>
       <c r="K28">
-        <v>0.004295359806953599</v>
+        <v>0.002771783799717838</v>
       </c>
       <c r="L28">
-        <v>0.004295359806953599</v>
+        <v>0.002771783799717838</v>
       </c>
       <c r="M28">
-        <v>0.004295359806953599</v>
+        <v>0.002771783799717838</v>
       </c>
       <c r="N28">
-        <v>0.004295359806953599</v>
+        <v>0.002771783799717838</v>
       </c>
       <c r="O28">
-        <v>0.004295359806953599</v>
+        <v>0.002771783799717838</v>
       </c>
       <c r="P28">
-        <v>0.01440414493204145</v>
+        <v>0.002113091589130916</v>
       </c>
       <c r="Q28">
-        <v>0.005076109358761093</v>
+        <v>0.003573903215739032</v>
       </c>
       <c r="R28">
-        <v>0.005076109358761093</v>
+        <v>0.003573903215739032</v>
       </c>
       <c r="S28">
-        <v>0.005076109358761093</v>
+        <v>0.003573903215739032</v>
       </c>
       <c r="T28">
-        <v>0.005076109358761093</v>
+        <v>0.003573903215739032</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2244,55 +2247,55 @@
         <v>76</v>
       </c>
       <c r="C29">
-        <v>-0.02748835947488359</v>
+        <v>-0.02475973123959731</v>
       </c>
       <c r="D29">
-        <v>-0.01902751617427517</v>
+        <v>-0.005577593131775931</v>
       </c>
       <c r="E29">
-        <v>-0.04170139888501399</v>
+        <v>-0.03077895571978956</v>
       </c>
       <c r="F29">
-        <v>0.01958615871986159</v>
+        <v>0.00372811401728114</v>
       </c>
       <c r="G29">
-        <v>-0.0003294584912945849</v>
+        <v>0.01600242568002426</v>
       </c>
       <c r="I29">
-        <v>-0.0261057695970577</v>
+        <v>5.76098405760984E-05</v>
       </c>
       <c r="J29">
-        <v>-0.01452277267123601</v>
+        <v>0.002270071281256544</v>
       </c>
       <c r="K29">
-        <v>0.02859073646190736</v>
+        <v>0.01783497593834976</v>
       </c>
       <c r="L29">
-        <v>0.02859073646190736</v>
+        <v>0.01783497593834976</v>
       </c>
       <c r="M29">
-        <v>0.02859073646190736</v>
+        <v>0.01783497593834976</v>
       </c>
       <c r="N29">
-        <v>0.02859073646190736</v>
+        <v>0.01783497593834976</v>
       </c>
       <c r="O29">
-        <v>0.02859073646190736</v>
+        <v>0.01783497593834976</v>
       </c>
       <c r="P29">
-        <v>0.02086805555268055</v>
+        <v>0.004913311693133117</v>
       </c>
       <c r="Q29">
-        <v>0.01514865773548658</v>
+        <v>0.001812249930122499</v>
       </c>
       <c r="R29">
-        <v>0.01514865773548658</v>
+        <v>0.001812249930122499</v>
       </c>
       <c r="S29">
-        <v>0.01514865773548658</v>
+        <v>0.001812249930122499</v>
       </c>
       <c r="T29">
-        <v>0.01514865773548658</v>
+        <v>0.001812249930122499</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2303,55 +2306,55 @@
         <v>77</v>
       </c>
       <c r="C30">
-        <v>-0.0191773700397737</v>
+        <v>-0.002186169213861692</v>
       </c>
       <c r="D30">
-        <v>-0.01022602807826028</v>
+        <v>0.004842115728421158</v>
       </c>
       <c r="E30">
-        <v>-0.01261671450616714</v>
+        <v>0.01041719549617195</v>
       </c>
       <c r="F30">
-        <v>0.00247102303271023</v>
+        <v>-0.01623764545837645</v>
       </c>
       <c r="G30">
-        <v>0.005085199502851996</v>
+        <v>0.02045999563259996</v>
       </c>
       <c r="I30">
-        <v>0.004531874469318745</v>
+        <v>0.01197390898773909</v>
       </c>
       <c r="J30">
-        <v>0.0005326637274736526</v>
+        <v>0.01699660232700023</v>
       </c>
       <c r="K30">
-        <v>0.002589731101897311</v>
+        <v>-0.001517185755171858</v>
       </c>
       <c r="L30">
-        <v>0.002589731101897311</v>
+        <v>-0.001517185755171858</v>
       </c>
       <c r="M30">
-        <v>0.002589731101897311</v>
+        <v>-0.001517185755171858</v>
       </c>
       <c r="N30">
-        <v>0.002589731101897311</v>
+        <v>-0.001517185755171858</v>
       </c>
       <c r="O30">
-        <v>0.002589731101897311</v>
+        <v>-0.001517185755171858</v>
       </c>
       <c r="P30">
-        <v>0.003063694866636949</v>
+        <v>-0.01623212067032121</v>
       </c>
       <c r="Q30">
-        <v>-0.003224346860243468</v>
+        <v>-0.008689043558890436</v>
       </c>
       <c r="R30">
-        <v>-0.003224346860243468</v>
+        <v>-0.008689043558890436</v>
       </c>
       <c r="S30">
-        <v>-0.003224346860243468</v>
+        <v>-0.008689043558890436</v>
       </c>
       <c r="T30">
-        <v>-0.003224346860243468</v>
+        <v>-0.008689043558890436</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2362,55 +2365,55 @@
         <v>78</v>
       </c>
       <c r="C31">
-        <v>-0.008431065480310656</v>
+        <v>0.0008139759801397598</v>
       </c>
       <c r="D31">
-        <v>-0.02147488223874882</v>
+        <v>-0.01621171205411712</v>
       </c>
       <c r="E31">
-        <v>0.01214402744544027</v>
+        <v>-0.002281385374813853</v>
       </c>
       <c r="F31">
-        <v>-0.004847405604474056</v>
+        <v>0.01376186117361861</v>
       </c>
       <c r="G31">
-        <v>0.003211316564113166</v>
+        <v>-0.01881744670417447</v>
       </c>
       <c r="I31">
-        <v>-0.01282423752824238</v>
+        <v>-0.01734872147348722</v>
       </c>
       <c r="J31">
-        <v>0.006976034033685727</v>
+        <v>-0.004560770760815291</v>
       </c>
       <c r="K31">
-        <v>-0.01005978356859783</v>
+        <v>0.004989290401892904</v>
       </c>
       <c r="L31">
-        <v>-0.01005978356859783</v>
+        <v>0.004989290401892904</v>
       </c>
       <c r="M31">
-        <v>-0.01005978356859783</v>
+        <v>0.004989290401892904</v>
       </c>
       <c r="N31">
-        <v>-0.01005978356859783</v>
+        <v>0.004989290401892904</v>
       </c>
       <c r="O31">
-        <v>-0.01005978356859783</v>
+        <v>0.004989290401892904</v>
       </c>
       <c r="P31">
-        <v>-0.005792993481929935</v>
+        <v>0.01289683526096835</v>
       </c>
       <c r="Q31">
-        <v>-0.007088356102883561</v>
+        <v>0.01304455264644553</v>
       </c>
       <c r="R31">
-        <v>-0.007088356102883561</v>
+        <v>0.01304455264644553</v>
       </c>
       <c r="S31">
-        <v>-0.007088356102883561</v>
+        <v>0.01304455264644553</v>
       </c>
       <c r="T31">
-        <v>-0.007088356102883561</v>
+        <v>0.01304455264644553</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2421,55 +2424,55 @@
         <v>79</v>
       </c>
       <c r="C32">
-        <v>-0.008562996193629963</v>
+        <v>-0.005622247592222477</v>
       </c>
       <c r="D32">
-        <v>-0.01185691121856911</v>
+        <v>-0.002000245952002459</v>
       </c>
       <c r="E32">
-        <v>-0.01006341473263415</v>
+        <v>-0.003283204556832045</v>
       </c>
       <c r="F32">
-        <v>0.004763653619636537</v>
+        <v>-0.001966894603668946</v>
       </c>
       <c r="G32">
-        <v>-0.0008336517203365172</v>
+        <v>0.005663230352632304</v>
       </c>
       <c r="I32">
-        <v>-0.007607760736077607</v>
+        <v>0.005515596079155961</v>
       </c>
       <c r="J32">
-        <v>-0.0003089012971742698</v>
+        <v>0.02721937588476385</v>
       </c>
       <c r="K32">
-        <v>-0.003513739823137398</v>
+        <v>-0.00458577689785777</v>
       </c>
       <c r="L32">
-        <v>-0.003513739823137398</v>
+        <v>-0.00458577689785777</v>
       </c>
       <c r="M32">
-        <v>-0.003513739823137398</v>
+        <v>-0.00458577689785777</v>
       </c>
       <c r="N32">
-        <v>-0.003513739823137398</v>
+        <v>-0.00458577689785777</v>
       </c>
       <c r="O32">
-        <v>-0.003513739823137398</v>
+        <v>-0.00458577689785777</v>
       </c>
       <c r="P32">
-        <v>0.004664771314647713</v>
+        <v>-0.001869755838697558</v>
       </c>
       <c r="Q32">
-        <v>-0.006086738208867382</v>
+        <v>-0.007010362306103623</v>
       </c>
       <c r="R32">
-        <v>-0.006086738208867382</v>
+        <v>-0.007010362306103623</v>
       </c>
       <c r="S32">
-        <v>-0.006086738208867382</v>
+        <v>-0.007010362306103623</v>
       </c>
       <c r="T32">
-        <v>-0.006086738208867382</v>
+        <v>-0.007010362306103623</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2480,55 +2483,55 @@
         <v>80</v>
       </c>
       <c r="C33">
-        <v>0.4655824304278243</v>
+        <v>0.396818294996183</v>
       </c>
       <c r="D33">
-        <v>0.004970403265704033</v>
+        <v>0.003653658888536589</v>
       </c>
       <c r="E33">
-        <v>0.9334610746546107</v>
+        <v>0.9343948185319482</v>
       </c>
       <c r="F33">
-        <v>-0.9975702816877028</v>
+        <v>-0.9975685429116853</v>
       </c>
       <c r="G33">
-        <v>0.96424599665446</v>
+        <v>0.9664406449484064</v>
       </c>
       <c r="I33">
-        <v>0.3074520320065203</v>
+        <v>0.3219797111317971</v>
       </c>
       <c r="J33">
-        <v>0.2161333578429864</v>
+        <v>0.1903046613219633</v>
       </c>
       <c r="K33">
-        <v>-0.4581321808893218</v>
+        <v>-0.4581325360413254</v>
       </c>
       <c r="L33">
-        <v>-0.4581321808893218</v>
+        <v>-0.4581325360413254</v>
       </c>
       <c r="M33">
-        <v>-0.4581321808893218</v>
+        <v>-0.4581325360413254</v>
       </c>
       <c r="N33">
-        <v>-0.4581321808893218</v>
+        <v>-0.4581325360413254</v>
       </c>
       <c r="O33">
-        <v>-0.4581321808893218</v>
+        <v>-0.4581325360413254</v>
       </c>
       <c r="P33">
-        <v>-0.9969700664617007</v>
+        <v>-0.9968650724606508</v>
       </c>
       <c r="Q33">
-        <v>-0.6006050782140507</v>
+        <v>-0.6468978291969782</v>
       </c>
       <c r="R33">
-        <v>-0.6006050782140507</v>
+        <v>-0.6468978291969782</v>
       </c>
       <c r="S33">
-        <v>-0.6006050782140507</v>
+        <v>-0.6468978291969782</v>
       </c>
       <c r="T33">
-        <v>-0.6006050782140507</v>
+        <v>-0.6468978291969782</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2539,55 +2542,55 @@
         <v>81</v>
       </c>
       <c r="C34">
-        <v>0.02142448432624484</v>
+        <v>0.004385885155858852</v>
       </c>
       <c r="D34">
-        <v>0.006450291148502912</v>
+        <v>-0.00284086194440862</v>
       </c>
       <c r="E34">
-        <v>0.0693660903936609</v>
+        <v>0.06799148656391486</v>
       </c>
       <c r="F34">
-        <v>-0.0774257696222577</v>
+        <v>-0.07605557735255576</v>
       </c>
       <c r="G34">
-        <v>0.07601083702010837</v>
+        <v>0.07278788235187883</v>
       </c>
       <c r="I34">
-        <v>0.06499762902197628</v>
+        <v>0.0612703502167035</v>
       </c>
       <c r="J34">
-        <v>0.04556148432018981</v>
+        <v>0.0140769009982266</v>
       </c>
       <c r="K34">
-        <v>-0.0306893603828936</v>
+        <v>-0.03598790120387901</v>
       </c>
       <c r="L34">
-        <v>-0.0306893603828936</v>
+        <v>-0.03598790120387901</v>
       </c>
       <c r="M34">
-        <v>-0.0306893603828936</v>
+        <v>-0.03598790120387901</v>
       </c>
       <c r="N34">
-        <v>-0.0306893603828936</v>
+        <v>-0.03598790120387901</v>
       </c>
       <c r="O34">
-        <v>-0.0306893603828936</v>
+        <v>-0.03598790120387901</v>
       </c>
       <c r="P34">
-        <v>-0.07755153258751533</v>
+        <v>-0.07612637876926379</v>
       </c>
       <c r="Q34">
-        <v>-0.04498739116187391</v>
+        <v>-0.04974765464947655</v>
       </c>
       <c r="R34">
-        <v>-0.04498739116187391</v>
+        <v>-0.04974765464947655</v>
       </c>
       <c r="S34">
-        <v>-0.04498739116187391</v>
+        <v>-0.04974765464947655</v>
       </c>
       <c r="T34">
-        <v>-0.04498739116187391</v>
+        <v>-0.04974765464947655</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2598,55 +2601,55 @@
         <v>82</v>
       </c>
       <c r="C35">
-        <v>-0.02297935335779353</v>
+        <v>-0.002893099816930998</v>
       </c>
       <c r="D35">
-        <v>-0.02203354159633542</v>
+        <v>0.006341509179415093</v>
       </c>
       <c r="E35">
-        <v>-0.02177975102579751</v>
+        <v>0.002240857486408575</v>
       </c>
       <c r="F35">
-        <v>0.0156343698123437</v>
+        <v>-0.005509587331095874</v>
       </c>
       <c r="G35">
-        <v>-0.01132717402127174</v>
+        <v>0.006108003349080034</v>
       </c>
       <c r="I35">
-        <v>-0.02990752784307528</v>
+        <v>0.01035884405558844</v>
       </c>
       <c r="J35">
-        <v>-0.00432840986647874</v>
+        <v>0.02535068242138749</v>
       </c>
       <c r="K35">
-        <v>0.06412906338529063</v>
+        <v>0.02087486328474863</v>
       </c>
       <c r="L35">
-        <v>0.06412906338529063</v>
+        <v>0.02087486328474863</v>
       </c>
       <c r="M35">
-        <v>0.06412906338529063</v>
+        <v>0.02087486328474863</v>
       </c>
       <c r="N35">
-        <v>0.06412906338529063</v>
+        <v>0.02087486328474863</v>
       </c>
       <c r="O35">
-        <v>0.06412906338529063</v>
+        <v>0.02087486328474863</v>
       </c>
       <c r="P35">
-        <v>0.0178476803024768</v>
+        <v>-0.004192574633925747</v>
       </c>
       <c r="Q35">
-        <v>0.05743286073432861</v>
+        <v>0.01382204338222043</v>
       </c>
       <c r="R35">
-        <v>0.05743286073432861</v>
+        <v>0.01382204338222043</v>
       </c>
       <c r="S35">
-        <v>0.05743286073432861</v>
+        <v>0.01382204338222043</v>
       </c>
       <c r="T35">
-        <v>0.05743286073432861</v>
+        <v>0.01382204338222043</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2657,55 +2660,55 @@
         <v>83</v>
       </c>
       <c r="C36">
-        <v>-0.0182075397260754</v>
+        <v>0.004664005150640051</v>
       </c>
       <c r="D36">
-        <v>-0.008016407720164077</v>
+        <v>-0.00246730699267307</v>
       </c>
       <c r="E36">
-        <v>-0.008742940335429402</v>
+        <v>0.004587496725874968</v>
       </c>
       <c r="F36">
-        <v>0.01384272219042722</v>
+        <v>0.00107166503871665</v>
       </c>
       <c r="G36">
-        <v>-0.01327931444479315</v>
+        <v>-0.005581939243819393</v>
       </c>
       <c r="I36">
-        <v>-0.009950723607507237</v>
+        <v>-0.004008522484085226</v>
       </c>
       <c r="J36">
-        <v>0.01114940280057126</v>
+        <v>0.0133770714939741</v>
       </c>
       <c r="K36">
-        <v>0.857197508403975</v>
+        <v>0.8452917876169179</v>
       </c>
       <c r="L36">
-        <v>0.857197508403975</v>
+        <v>0.8452917876169179</v>
       </c>
       <c r="M36">
-        <v>0.857197508403975</v>
+        <v>0.8452917876169179</v>
       </c>
       <c r="N36">
-        <v>0.857197508403975</v>
+        <v>0.8452917876169179</v>
       </c>
       <c r="O36">
-        <v>0.857197508403975</v>
+        <v>0.8452917876169179</v>
       </c>
       <c r="P36">
-        <v>0.03438006453180065</v>
+        <v>0.02180185574601856</v>
       </c>
       <c r="Q36">
-        <v>0.7764983176089832</v>
+        <v>0.7229496975294969</v>
       </c>
       <c r="R36">
-        <v>0.7764983176089832</v>
+        <v>0.7229496975294969</v>
       </c>
       <c r="S36">
-        <v>0.7764983176089832</v>
+        <v>0.7229496975294969</v>
       </c>
       <c r="T36">
-        <v>0.7764983176089832</v>
+        <v>0.7229496975294969</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2716,55 +2719,55 @@
         <v>83</v>
       </c>
       <c r="C37">
-        <v>0.001219652112196521</v>
+        <v>0.01223641122236411</v>
       </c>
       <c r="D37">
-        <v>0.0003113487631134876</v>
+        <v>-0.01519095769990958</v>
       </c>
       <c r="E37">
-        <v>-0.009013250118132502</v>
+        <v>0.00796060899160609</v>
       </c>
       <c r="F37">
-        <v>0.007960390711603907</v>
+        <v>-0.004733190107331901</v>
       </c>
       <c r="G37">
-        <v>-0.006074974248749743</v>
+        <v>0.00353121697131217</v>
       </c>
       <c r="I37">
-        <v>-0.01234478409944784</v>
+        <v>-0.009463308046633079</v>
       </c>
       <c r="J37">
-        <v>-0.002000416166556277</v>
+        <v>-0.008876858776045981</v>
       </c>
       <c r="K37">
-        <v>-0.006659752578597525</v>
+        <v>0.006066985056669851</v>
       </c>
       <c r="L37">
-        <v>-0.006659752578597525</v>
+        <v>0.006066985056669851</v>
       </c>
       <c r="M37">
-        <v>-0.006659752578597525</v>
+        <v>0.006066985056669851</v>
       </c>
       <c r="N37">
-        <v>-0.006659752578597525</v>
+        <v>0.006066985056669851</v>
       </c>
       <c r="O37">
-        <v>-0.006659752578597525</v>
+        <v>0.006066985056669851</v>
       </c>
       <c r="P37">
-        <v>0.007472876162728761</v>
+        <v>-0.004541208405412084</v>
       </c>
       <c r="Q37">
-        <v>-0.003921875199218752</v>
+        <v>0.006270006326700063</v>
       </c>
       <c r="R37">
-        <v>-0.003921875199218752</v>
+        <v>0.006270006326700063</v>
       </c>
       <c r="S37">
-        <v>-0.003921875199218752</v>
+        <v>0.006270006326700063</v>
       </c>
       <c r="T37">
-        <v>-0.003921875199218752</v>
+        <v>0.006270006326700063</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2775,55 +2778,55 @@
         <v>83</v>
       </c>
       <c r="C38">
-        <v>-0.003578949527789496</v>
+        <v>-0.01086838404068384</v>
       </c>
       <c r="D38">
-        <v>0.004457391692573916</v>
+        <v>-0.01165142259251423</v>
       </c>
       <c r="E38">
-        <v>-0.001387254073872541</v>
+        <v>0.002668345106683451</v>
       </c>
       <c r="F38">
-        <v>-0.003180696115806961</v>
+        <v>-0.002251189306511893</v>
       </c>
       <c r="G38">
-        <v>0.005899331782993318</v>
+        <v>0.002882226412822265</v>
       </c>
       <c r="I38">
-        <v>0.004076087464760874</v>
+        <v>-0.003236849852368499</v>
       </c>
       <c r="J38">
-        <v>-0.007645988166570175</v>
+        <v>-0.001476954147637378</v>
       </c>
       <c r="K38">
-        <v>0.1023925354839254</v>
+        <v>0.08781742428217425</v>
       </c>
       <c r="L38">
-        <v>0.1023925354839254</v>
+        <v>0.08781742428217425</v>
       </c>
       <c r="M38">
-        <v>0.1023925354839254</v>
+        <v>0.08781742428217425</v>
       </c>
       <c r="N38">
-        <v>0.1023925354839254</v>
+        <v>0.08781742428217425</v>
       </c>
       <c r="O38">
-        <v>0.1023925354839254</v>
+        <v>0.08781742428217425</v>
       </c>
       <c r="P38">
-        <v>-0.0005285787412857875</v>
+        <v>-0.0002045293820452938</v>
       </c>
       <c r="Q38">
-        <v>0.09199330504393306</v>
+        <v>0.0775621807876218</v>
       </c>
       <c r="R38">
-        <v>0.09199330504393306</v>
+        <v>0.0775621807876218</v>
       </c>
       <c r="S38">
-        <v>0.09199330504393306</v>
+        <v>0.0775621807876218</v>
       </c>
       <c r="T38">
-        <v>0.09199330504393306</v>
+        <v>0.0775621807876218</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2834,55 +2837,55 @@
         <v>83</v>
       </c>
       <c r="C39">
-        <v>-0.004553433669534337</v>
+        <v>0.0096168100201681</v>
       </c>
       <c r="D39">
-        <v>-0.004132257473322575</v>
+        <v>0.007499023610990236</v>
       </c>
       <c r="E39">
-        <v>0.004612279102122792</v>
+        <v>-0.02012057754920578</v>
       </c>
       <c r="F39">
-        <v>-0.003398843925988439</v>
+        <v>0.01988816767888168</v>
       </c>
       <c r="G39">
-        <v>0.004081056172810562</v>
+        <v>-0.01702423524224235</v>
       </c>
       <c r="I39">
-        <v>0.005771225301712253</v>
+        <v>0.006674395554743955</v>
       </c>
       <c r="J39">
-        <v>0.01299329687551912</v>
+        <v>-0.008950136387119497</v>
       </c>
       <c r="K39">
-        <v>0.002189436921894369</v>
+        <v>0.002607819458078194</v>
       </c>
       <c r="L39">
-        <v>0.002189436921894369</v>
+        <v>0.002607819458078194</v>
       </c>
       <c r="M39">
-        <v>0.002189436921894369</v>
+        <v>0.002607819458078194</v>
       </c>
       <c r="N39">
-        <v>0.002189436921894369</v>
+        <v>0.002607819458078194</v>
       </c>
       <c r="O39">
-        <v>0.002189436921894369</v>
+        <v>0.002607819458078194</v>
       </c>
       <c r="P39">
-        <v>-0.003381477945814779</v>
+        <v>0.01962449920024499</v>
       </c>
       <c r="Q39">
-        <v>0.001933032559330326</v>
+        <v>0.004783638083836381</v>
       </c>
       <c r="R39">
-        <v>0.001933032559330326</v>
+        <v>0.004783638083836381</v>
       </c>
       <c r="S39">
-        <v>0.001933032559330326</v>
+        <v>0.004783638083836381</v>
       </c>
       <c r="T39">
-        <v>0.001933032559330326</v>
+        <v>0.004783638083836381</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -2893,55 +2896,114 @@
         <v>83</v>
       </c>
       <c r="C40">
-        <v>-0.01035105178351052</v>
+        <v>-0.01375463191754632</v>
       </c>
       <c r="D40">
-        <v>0.006039517200395172</v>
+        <v>-0.003414632878146329</v>
       </c>
       <c r="E40">
-        <v>-0.02637026752770267</v>
+        <v>-0.01647283893272839</v>
       </c>
       <c r="F40">
-        <v>0.02552974850729748</v>
+        <v>0.01630750507907505</v>
       </c>
       <c r="G40">
-        <v>-0.02233776391937764</v>
+        <v>-0.01308415840684158</v>
       </c>
       <c r="I40">
-        <v>-0.01014111336541114</v>
+        <v>-0.007990208887902087</v>
       </c>
       <c r="J40">
-        <v>-0.003936724012453776</v>
+        <v>0.008954541137184026</v>
       </c>
       <c r="K40">
-        <v>0.00822331881423319</v>
+        <v>-0.004162832261628322</v>
       </c>
       <c r="L40">
-        <v>0.00822331881423319</v>
+        <v>-0.004162832261628322</v>
       </c>
       <c r="M40">
-        <v>0.00822331881423319</v>
+        <v>-0.004162832261628322</v>
       </c>
       <c r="N40">
-        <v>0.00822331881423319</v>
+        <v>-0.004162832261628322</v>
       </c>
       <c r="O40">
-        <v>0.00822331881423319</v>
+        <v>-0.004162832261628322</v>
       </c>
       <c r="P40">
-        <v>0.02568201767282018</v>
+        <v>0.01585368044653681</v>
       </c>
       <c r="Q40">
-        <v>0.00977650104176501</v>
+        <v>-0.001292012472920125</v>
       </c>
       <c r="R40">
-        <v>0.00977650104176501</v>
+        <v>-0.001292012472920125</v>
       </c>
       <c r="S40">
-        <v>0.00977650104176501</v>
+        <v>-0.001292012472920125</v>
       </c>
       <c r="T40">
-        <v>0.00977650104176501</v>
+        <v>-0.001292012472920125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41">
+        <v>-0.04615354328953544</v>
+      </c>
+      <c r="D41">
+        <v>-0.0122099903780999</v>
+      </c>
+      <c r="E41">
+        <v>0.01053993202539932</v>
+      </c>
+      <c r="F41">
+        <v>-0.01110447410704474</v>
+      </c>
+      <c r="G41">
+        <v>0.0126113197381132</v>
+      </c>
+      <c r="I41">
+        <v>-0.01713763211137632</v>
+      </c>
+      <c r="J41">
+        <v>-0.005871375122015646</v>
+      </c>
+      <c r="K41">
+        <v>-0.01351199647511996</v>
+      </c>
+      <c r="L41">
+        <v>-0.01351199647511996</v>
+      </c>
+      <c r="M41">
+        <v>-0.01351199647511996</v>
+      </c>
+      <c r="N41">
+        <v>-0.01351199647511996</v>
+      </c>
+      <c r="O41">
+        <v>-0.01351199647511996</v>
+      </c>
+      <c r="P41">
+        <v>-0.0111171698191717</v>
+      </c>
+      <c r="Q41">
+        <v>-0.01369737475697375</v>
+      </c>
+      <c r="R41">
+        <v>-0.01369737475697375</v>
+      </c>
+      <c r="S41">
+        <v>-0.01369737475697375</v>
+      </c>
+      <c r="T41">
+        <v>-0.01369737475697375</v>
       </c>
     </row>
   </sheetData>

--- a/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Element</t>
   </si>
@@ -89,24 +89,6 @@
   </si>
   <si>
     <t>Crude-glycerol GWP [kg*CO2*eq / kg]</t>
-  </si>
-  <si>
-    <t>MFPP derivative [USD/MT]</t>
-  </si>
-  <si>
-    <t>Biodiesel production derivative [L/MT]</t>
-  </si>
-  <si>
-    <t>Ethanol production derivative [L/MT]</t>
-  </si>
-  <si>
-    <t>Electricity production derivative [kWhr/MT]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption derivative [cf/MT]</t>
-  </si>
-  <si>
-    <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
     <t>GWP derivative [kg*CO2*eq / USD]</t>
@@ -626,13 +608,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE41"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,30 +645,22 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -759,2259 +733,2240 @@
       <c r="Y2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.2534141143821412</v>
+        <v>0.2608310740989231</v>
       </c>
       <c r="D4">
-        <v>0.00151221894312219</v>
+        <v>0.01112697495510899</v>
       </c>
       <c r="E4">
-        <v>0.3462222421382224</v>
+        <v>0.3169578970852797</v>
       </c>
       <c r="F4">
-        <v>-0.01638940434789405</v>
+        <v>0.01789927305311364</v>
       </c>
       <c r="G4">
-        <v>-0.1904705880567059</v>
+        <v>-0.2235589383056085</v>
       </c>
       <c r="I4">
-        <v>-0.06502854045828541</v>
+        <v>-0.0682204733315699</v>
       </c>
       <c r="J4">
-        <v>0.05263217258706133</v>
+        <v>0.05044632046159972</v>
       </c>
       <c r="K4">
-        <v>-0.1672140828761408</v>
+        <v>-0.1654565283821333</v>
       </c>
       <c r="L4">
-        <v>-0.1672140828761408</v>
+        <v>-0.1654565283821333</v>
       </c>
       <c r="M4">
-        <v>-0.1672140828761408</v>
+        <v>-0.1654565283821333</v>
       </c>
       <c r="N4">
-        <v>-0.1672140828761408</v>
+        <v>-0.1654565283821333</v>
       </c>
       <c r="O4">
-        <v>-0.1672140828761408</v>
+        <v>-0.1654565283821333</v>
       </c>
       <c r="P4">
-        <v>-0.04026879667868797</v>
+        <v>-0.006434462491163477</v>
       </c>
       <c r="Q4">
-        <v>0.01984448061044481</v>
+        <v>0.0307403325818802</v>
       </c>
       <c r="R4">
-        <v>0.01984448061044481</v>
+        <v>0.0307403325818802</v>
       </c>
       <c r="S4">
-        <v>0.01984448061044481</v>
+        <v>0.0307403325818802</v>
       </c>
       <c r="T4">
-        <v>0.01984448061044481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>0.0307403325818802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>-0.002123850909238509</v>
+        <v>0.02522086595657604</v>
       </c>
       <c r="D5">
-        <v>0.0009778538137785381</v>
+        <v>-0.001765577465087148</v>
       </c>
       <c r="E5">
-        <v>-0.00615360913353609</v>
+        <v>0.003951968944562015</v>
       </c>
       <c r="F5">
-        <v>-0.000330443595304436</v>
+        <v>0.0004156653346197709</v>
       </c>
       <c r="G5">
-        <v>0.004684081114840811</v>
+        <v>-0.004274499699601558</v>
       </c>
       <c r="I5">
-        <v>0.001699639696996397</v>
+        <v>-0.007429703483276619</v>
       </c>
       <c r="J5">
-        <v>0.00918674126658576</v>
+        <v>0.003562573841854283</v>
       </c>
       <c r="K5">
-        <v>0.002568873097688731</v>
+        <v>-0.01198517156226831</v>
       </c>
       <c r="L5">
-        <v>0.002568873097688731</v>
+        <v>-0.01198517156226831</v>
       </c>
       <c r="M5">
-        <v>0.002568873097688731</v>
+        <v>-0.01198517156226831</v>
       </c>
       <c r="N5">
-        <v>0.002568873097688731</v>
+        <v>-0.01198517156226831</v>
       </c>
       <c r="O5">
-        <v>0.002568873097688731</v>
+        <v>-0.01198517156226831</v>
       </c>
       <c r="P5">
-        <v>0.0002491566504915665</v>
+        <v>0.0001905565811024466</v>
       </c>
       <c r="Q5">
-        <v>-0.002419821060198211</v>
+        <v>-0.007409592397024881</v>
       </c>
       <c r="R5">
-        <v>-0.002419821060198211</v>
+        <v>-0.007409592397024881</v>
       </c>
       <c r="S5">
-        <v>-0.002419821060198211</v>
+        <v>-0.007409592397024881</v>
       </c>
       <c r="T5">
-        <v>-0.002419821060198211</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>-0.007409592397024881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>0.2012327226683273</v>
+        <v>0.2082595146993674</v>
       </c>
       <c r="D6">
-        <v>-0.02621256331012563</v>
+        <v>-0.01058144402471006</v>
       </c>
       <c r="E6">
-        <v>0.02146144436261444</v>
+        <v>0.01637116450579945</v>
       </c>
       <c r="F6">
-        <v>-0.01182765631027656</v>
+        <v>-0.009084350931005484</v>
       </c>
       <c r="G6">
-        <v>-0.001757904677579047</v>
+        <v>-0.003697254198394597</v>
       </c>
       <c r="I6">
-        <v>-0.46783199571432</v>
+        <v>-0.4522080598235635</v>
       </c>
       <c r="J6">
-        <v>-0.05387152708521787</v>
+        <v>-0.03767931938991962</v>
       </c>
       <c r="K6">
-        <v>-0.002556133417561334</v>
+        <v>-0.009490407288912615</v>
       </c>
       <c r="L6">
-        <v>-0.002556133417561334</v>
+        <v>-0.009490407288912615</v>
       </c>
       <c r="M6">
-        <v>-0.002556133417561334</v>
+        <v>-0.009490407288912615</v>
       </c>
       <c r="N6">
-        <v>-0.002556133417561334</v>
+        <v>-0.009490407288912615</v>
       </c>
       <c r="O6">
-        <v>-0.002556133417561334</v>
+        <v>-0.009490407288912615</v>
       </c>
       <c r="P6">
-        <v>-0.009672046356720464</v>
+        <v>-0.007483196952862453</v>
       </c>
       <c r="Q6">
-        <v>0.003141932875419329</v>
+        <v>-0.002700811800012685</v>
       </c>
       <c r="R6">
-        <v>0.003141932875419329</v>
+        <v>-0.002700811800012685</v>
       </c>
       <c r="S6">
-        <v>0.003141932875419329</v>
+        <v>-0.002700811800012685</v>
       </c>
       <c r="T6">
-        <v>0.003141932875419329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>-0.002700811800012685</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>0.0877666706896667</v>
+        <v>0.07012228248628569</v>
       </c>
       <c r="D7">
-        <v>0.02194901197549012</v>
+        <v>-0.00489838524059977</v>
       </c>
       <c r="E7">
-        <v>-0.02334661489746615</v>
+        <v>-0.009699414081240847</v>
       </c>
       <c r="F7">
-        <v>0.003388116705881167</v>
+        <v>-0.01223766708183855</v>
       </c>
       <c r="G7">
-        <v>-0.006341108595411087</v>
+        <v>0.006748599175759363</v>
       </c>
       <c r="I7">
-        <v>-0.2017711247297113</v>
+        <v>-0.2112595547071806</v>
       </c>
       <c r="J7">
-        <v>-0.02587602129708371</v>
+        <v>-0.01988709975528617</v>
       </c>
       <c r="K7">
-        <v>0.03296107231761072</v>
+        <v>0.02930146998127297</v>
       </c>
       <c r="L7">
-        <v>0.03296107231761072</v>
+        <v>0.02930146998127297</v>
       </c>
       <c r="M7">
-        <v>0.03296107231761072</v>
+        <v>0.02930146998127297</v>
       </c>
       <c r="N7">
-        <v>0.03296107231761072</v>
+        <v>0.02930146998127297</v>
       </c>
       <c r="O7">
-        <v>0.03296107231761072</v>
+        <v>0.02930146998127297</v>
       </c>
       <c r="P7">
-        <v>0.009666675768666758</v>
+        <v>-0.005373580443337195</v>
       </c>
       <c r="Q7">
-        <v>0.02279817628798176</v>
+        <v>0.01841490242054535</v>
       </c>
       <c r="R7">
-        <v>0.02279817628798176</v>
+        <v>0.01841490242054535</v>
       </c>
       <c r="S7">
-        <v>0.02279817628798176</v>
+        <v>0.01841490242054535</v>
       </c>
       <c r="T7">
-        <v>0.02279817628798176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
+        <v>0.01841490242054535</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>0.3017432058654321</v>
+        <v>0.3070087302345115</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.003781856653818567</v>
+        <v>0.0003490544117039752</v>
       </c>
       <c r="F8">
-        <v>-0.003765547885655479</v>
+        <v>0.005622160423783757</v>
       </c>
       <c r="G8">
-        <v>0.02303633245436332</v>
+        <v>0.01224535144133362</v>
       </c>
       <c r="I8">
-        <v>0.7793887314418873</v>
+        <v>0.7804847618278871</v>
       </c>
       <c r="J8">
-        <v>0.06058427026755956</v>
+        <v>0.069583565947757</v>
       </c>
       <c r="K8">
-        <v>-0.03255686560956866</v>
+        <v>-0.03861326844708233</v>
       </c>
       <c r="L8">
-        <v>-0.03255686560956866</v>
+        <v>-0.03861326844708233</v>
       </c>
       <c r="M8">
-        <v>-0.03255686560956866</v>
+        <v>-0.03861326844708233</v>
       </c>
       <c r="N8">
-        <v>-0.03255686560956866</v>
+        <v>-0.03861326844708233</v>
       </c>
       <c r="O8">
-        <v>-0.03255686560956866</v>
+        <v>-0.03861326844708233</v>
       </c>
       <c r="P8">
-        <v>-0.01044050308440503</v>
+        <v>-0.00207175360268365</v>
       </c>
       <c r="Q8">
-        <v>-0.03461261855812618</v>
+        <v>-0.03885364563052572</v>
       </c>
       <c r="R8">
-        <v>-0.03461261855812618</v>
+        <v>-0.03885364563052572</v>
       </c>
       <c r="S8">
-        <v>-0.03461261855812618</v>
+        <v>-0.03885364563052572</v>
       </c>
       <c r="T8">
-        <v>-0.03461261855812618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
+        <v>-0.03885364563052572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C9">
-        <v>0.006181124365811244</v>
+        <v>-0.00377477949648093</v>
       </c>
       <c r="D9">
-        <v>-0.009849915098499151</v>
+        <v>0.01311056793141513</v>
       </c>
       <c r="E9">
-        <v>0.01582049079820491</v>
+        <v>-0.009159258799363421</v>
       </c>
       <c r="F9">
-        <v>-0.01168299161682992</v>
+        <v>0.01212206205659472</v>
       </c>
       <c r="G9">
-        <v>0.007438139858381398</v>
+        <v>-0.01137690934182671</v>
       </c>
       <c r="I9">
-        <v>-0.004035834256358342</v>
+        <v>0.007739265589676025</v>
       </c>
       <c r="J9">
-        <v>0.002262510411145777</v>
+        <v>-0.01699682777864263</v>
       </c>
       <c r="K9">
-        <v>-0.004785323411853234</v>
+        <v>0.008344464013194752</v>
       </c>
       <c r="L9">
-        <v>-0.004785323411853234</v>
+        <v>0.008344464013194752</v>
       </c>
       <c r="M9">
-        <v>-0.004785323411853234</v>
+        <v>0.008344464013194752</v>
       </c>
       <c r="N9">
-        <v>-0.004785323411853234</v>
+        <v>0.008344464013194752</v>
       </c>
       <c r="O9">
-        <v>-0.004785323411853234</v>
+        <v>0.008344464013194752</v>
       </c>
       <c r="P9">
-        <v>-0.01170764649307647</v>
+        <v>0.01186494168538972</v>
       </c>
       <c r="Q9">
-        <v>-0.004629160546291605</v>
+        <v>0.01026979087140299</v>
       </c>
       <c r="R9">
-        <v>-0.004629160546291605</v>
+        <v>0.01026979087140299</v>
       </c>
       <c r="S9">
-        <v>-0.004629160546291605</v>
+        <v>0.01026979087140299</v>
       </c>
       <c r="T9">
-        <v>-0.004629160546291605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31">
+        <v>0.01026979087140299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C10">
-        <v>0.3799692724156927</v>
+        <v>0.3617116220892442</v>
       </c>
       <c r="D10">
-        <v>-0.006061106124611061</v>
+        <v>0.01630515048914298</v>
       </c>
       <c r="E10">
-        <v>0.01060671934606719</v>
+        <v>-0.004204533815695841</v>
       </c>
       <c r="F10">
-        <v>-0.005333016317330163</v>
+        <v>0.008477614913712734</v>
       </c>
       <c r="G10">
-        <v>-0.0002691923066919231</v>
+        <v>-0.008335162513049416</v>
       </c>
       <c r="I10">
-        <v>-0.0140655200246552</v>
+        <v>0.02075324983208203</v>
       </c>
       <c r="J10">
-        <v>0.00196574608679818</v>
+        <v>-0.01030253688102455</v>
       </c>
       <c r="K10">
-        <v>0.0002682707066827071</v>
+        <v>-0.001478105882470404</v>
       </c>
       <c r="L10">
-        <v>0.0002682707066827071</v>
+        <v>-0.001478105882470404</v>
       </c>
       <c r="M10">
-        <v>0.0002682707066827071</v>
+        <v>-0.001478105882470404</v>
       </c>
       <c r="N10">
-        <v>0.0002682707066827071</v>
+        <v>-0.001478105882470404</v>
       </c>
       <c r="O10">
-        <v>0.0002682707066827071</v>
+        <v>-0.001478105882470404</v>
       </c>
       <c r="P10">
-        <v>-0.005357742329577424</v>
+        <v>0.00775432385553631</v>
       </c>
       <c r="Q10">
-        <v>0.003858345866583459</v>
+        <v>0.003244728660073886</v>
       </c>
       <c r="R10">
-        <v>0.003858345866583459</v>
+        <v>0.003244728660073886</v>
       </c>
       <c r="S10">
-        <v>0.003858345866583459</v>
+        <v>0.003244728660073886</v>
       </c>
       <c r="T10">
-        <v>0.003858345866583459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31">
+        <v>0.003244728660073886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C11">
-        <v>0.503592591799926</v>
+        <v>0.5218953561311774</v>
       </c>
       <c r="D11">
-        <v>-1.081171210811712E-05</v>
+        <v>-0.002207518206367472</v>
       </c>
       <c r="E11">
-        <v>-0.02809038516490385</v>
+        <v>0.003721282253457536</v>
       </c>
       <c r="F11">
-        <v>0.02342076916220769</v>
+        <v>-5.718330558098915E-05</v>
       </c>
       <c r="G11">
-        <v>-0.01997850394378504</v>
+        <v>-0.003418625608103525</v>
       </c>
       <c r="I11">
-        <v>-0.002293674802936748</v>
+        <v>-0.001741668706901074</v>
       </c>
       <c r="J11">
-        <v>-0.007466117221378617</v>
+        <v>0.02453937632238726</v>
       </c>
       <c r="K11">
-        <v>0.01368898468088985</v>
+        <v>-0.007574021532406587</v>
       </c>
       <c r="L11">
-        <v>0.01368898468088985</v>
+        <v>-0.007574021532406587</v>
       </c>
       <c r="M11">
-        <v>0.01368898468088985</v>
+        <v>-0.007574021532406587</v>
       </c>
       <c r="N11">
-        <v>0.01368898468088985</v>
+        <v>-0.007574021532406587</v>
       </c>
       <c r="O11">
-        <v>0.01368898468088985</v>
+        <v>-0.007574021532406587</v>
       </c>
       <c r="P11">
-        <v>0.02395801576758016</v>
+        <v>-0.0004606183196971613</v>
       </c>
       <c r="Q11">
-        <v>0.01456810200168102</v>
+        <v>-0.00441123897517561</v>
       </c>
       <c r="R11">
-        <v>0.01456810200168102</v>
+        <v>-0.00441123897517561</v>
       </c>
       <c r="S11">
-        <v>0.01456810200168102</v>
+        <v>-0.00441123897517561</v>
       </c>
       <c r="T11">
-        <v>0.01456810200168102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31">
+        <v>-0.00441123897517561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>0.02194931703949317</v>
+        <v>0.005404809295387646</v>
       </c>
       <c r="D12">
-        <v>0.01840892352408923</v>
+        <v>0.005172416705819012</v>
       </c>
       <c r="E12">
-        <v>0.002375974379759744</v>
+        <v>-0.005886162349783787</v>
       </c>
       <c r="F12">
-        <v>0.005758472325584723</v>
+        <v>0.004723234245675536</v>
       </c>
       <c r="G12">
-        <v>-0.01053388719333887</v>
+        <v>-0.004260807371262616</v>
       </c>
       <c r="I12">
-        <v>0.007676774956767749</v>
+        <v>0.00175862334779099</v>
       </c>
       <c r="J12">
-        <v>-0.007795922034210257</v>
+        <v>-0.00997664862050251</v>
       </c>
       <c r="K12">
-        <v>-0.01293499065334991</v>
+        <v>0.01980811151262675</v>
       </c>
       <c r="L12">
-        <v>-0.01293499065334991</v>
+        <v>0.01980811151262675</v>
       </c>
       <c r="M12">
-        <v>-0.01293499065334991</v>
+        <v>0.01980811151262675</v>
       </c>
       <c r="N12">
-        <v>-0.01293499065334991</v>
+        <v>0.01980811151262675</v>
       </c>
       <c r="O12">
-        <v>-0.01293499065334991</v>
+        <v>0.01980811151262675</v>
       </c>
       <c r="P12">
-        <v>0.004492248920922489</v>
+        <v>0.005381289482520149</v>
       </c>
       <c r="Q12">
-        <v>-0.004149038609490387</v>
+        <v>0.02012781169730956</v>
       </c>
       <c r="R12">
-        <v>-0.004149038609490387</v>
+        <v>0.02012781169730956</v>
       </c>
       <c r="S12">
-        <v>-0.004149038609490387</v>
+        <v>0.02012781169730956</v>
       </c>
       <c r="T12">
-        <v>-0.004149038609490387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31">
+        <v>0.02012781169730956</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C13">
-        <v>0.1002293370302934</v>
+        <v>0.1232783704730996</v>
       </c>
       <c r="D13">
-        <v>-0.02004360854043609</v>
+        <v>-0.01257064383704131</v>
       </c>
       <c r="E13">
-        <v>0.005122499439224994</v>
+        <v>-0.001177366096521345</v>
       </c>
       <c r="F13">
-        <v>-0.002100138045001381</v>
+        <v>0.002882785685668527</v>
       </c>
       <c r="G13">
-        <v>-0.000607033290070333</v>
+        <v>-0.004047452172616441</v>
       </c>
       <c r="I13">
-        <v>-0.01042751066027511</v>
+        <v>-0.0134103994439125</v>
       </c>
       <c r="J13">
-        <v>-0.009242608071404208</v>
+        <v>0.00661025889200592</v>
       </c>
       <c r="K13">
-        <v>0.02103777319837773</v>
+        <v>0.004943826358497288</v>
       </c>
       <c r="L13">
-        <v>0.02103777319837773</v>
+        <v>0.004943826358497288</v>
       </c>
       <c r="M13">
-        <v>0.02103777319837773</v>
+        <v>0.004943826358497288</v>
       </c>
       <c r="N13">
-        <v>0.02103777319837773</v>
+        <v>0.004943826358497288</v>
       </c>
       <c r="O13">
-        <v>0.02103777319837773</v>
+        <v>0.004943826358497288</v>
       </c>
       <c r="P13">
-        <v>-0.001519248591192486</v>
+        <v>0.003355048880547639</v>
       </c>
       <c r="Q13">
-        <v>0.01853769344937694</v>
+        <v>0.004862908950982953</v>
       </c>
       <c r="R13">
-        <v>0.01853769344937694</v>
+        <v>0.004862908950982953</v>
       </c>
       <c r="S13">
-        <v>0.01853769344937694</v>
+        <v>0.004862908950982953</v>
       </c>
       <c r="T13">
-        <v>0.01853769344937694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
+        <v>0.004862908950982953</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14">
-        <v>-0.3642480629704807</v>
+        <v>-0.3617710654261104</v>
       </c>
       <c r="D14">
-        <v>-0.003031562910315629</v>
+        <v>-0.007575327587114496</v>
       </c>
       <c r="E14">
-        <v>-0.001570655247706553</v>
+        <v>-0.002521099281579677</v>
       </c>
       <c r="F14">
-        <v>0.003647275440472754</v>
+        <v>-0.004663100815048451</v>
       </c>
       <c r="G14">
-        <v>-0.005460724578607246</v>
+        <v>0.01084396716162449</v>
       </c>
       <c r="I14">
-        <v>-0.01352991891929919</v>
+        <v>-8.53574075837095E-05</v>
       </c>
       <c r="J14">
-        <v>0.006025321492270959</v>
+        <v>-0.007989332693439696</v>
       </c>
       <c r="K14">
-        <v>0.008411929872119297</v>
+        <v>-0.006639707002182924</v>
       </c>
       <c r="L14">
-        <v>0.008411929872119297</v>
+        <v>-0.006639707002182924</v>
       </c>
       <c r="M14">
-        <v>0.008411929872119297</v>
+        <v>-0.006639707002182924</v>
       </c>
       <c r="N14">
-        <v>0.008411929872119297</v>
+        <v>-0.006639707002182924</v>
       </c>
       <c r="O14">
-        <v>0.008411929872119297</v>
+        <v>-0.006639707002182924</v>
       </c>
       <c r="P14">
-        <v>0.003807465674074657</v>
+        <v>-0.004457128616517635</v>
       </c>
       <c r="Q14">
-        <v>0.01003509418035094</v>
+        <v>-0.01114239122878736</v>
       </c>
       <c r="R14">
-        <v>0.01003509418035094</v>
+        <v>-0.01114239122878736</v>
       </c>
       <c r="S14">
-        <v>0.01003509418035094</v>
+        <v>-0.01114239122878736</v>
       </c>
       <c r="T14">
-        <v>0.01003509418035094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
+        <v>-0.01114239122878736</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C15">
-        <v>0.03005537388055374</v>
+        <v>-0.0003683003963796938</v>
       </c>
       <c r="D15">
-        <v>-0.002824025776240258</v>
+        <v>-0.01679604588743822</v>
       </c>
       <c r="E15">
-        <v>0.00822272793422728</v>
+        <v>-0.02111224720487887</v>
       </c>
       <c r="F15">
-        <v>-0.00794651791946518</v>
+        <v>0.02375047792578872</v>
       </c>
       <c r="G15">
-        <v>0.007002493918024939</v>
+        <v>-0.02452291674254558</v>
       </c>
       <c r="I15">
-        <v>-0.0007613290396132903</v>
+        <v>-0.0224333950067718</v>
       </c>
       <c r="J15">
-        <v>0.01364649696192118</v>
+        <v>-0.01170554750716301</v>
       </c>
       <c r="K15">
-        <v>-0.01006569588465696</v>
+        <v>0.01970445452663211</v>
       </c>
       <c r="L15">
-        <v>-0.01006569588465696</v>
+        <v>0.01970445452663211</v>
       </c>
       <c r="M15">
-        <v>-0.01006569588465696</v>
+        <v>0.01970445452663211</v>
       </c>
       <c r="N15">
-        <v>-0.01006569588465696</v>
+        <v>0.01970445452663211</v>
       </c>
       <c r="O15">
-        <v>-0.01006569588465696</v>
+        <v>0.01970445452663211</v>
       </c>
       <c r="P15">
-        <v>-0.007944985483449855</v>
+        <v>0.02421399762053122</v>
       </c>
       <c r="Q15">
-        <v>-0.01072140407921404</v>
+        <v>0.02276383165255988</v>
       </c>
       <c r="R15">
-        <v>-0.01072140407921404</v>
+        <v>0.02276383165255988</v>
       </c>
       <c r="S15">
-        <v>-0.01072140407921404</v>
+        <v>0.02276383165255988</v>
       </c>
       <c r="T15">
-        <v>-0.01072140407921404</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
+        <v>0.02276383165255988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C16">
-        <v>-0.03209350107293501</v>
+        <v>-0.006468308562004822</v>
       </c>
       <c r="D16">
-        <v>0.0007758225677582258</v>
+        <v>0.008682973330983959</v>
       </c>
       <c r="E16">
-        <v>-0.02648603205686032</v>
+        <v>0.01315855684622745</v>
       </c>
       <c r="F16">
-        <v>0.02230616683906167</v>
+        <v>-0.007324337364442771</v>
       </c>
       <c r="G16">
-        <v>-0.01952871273928713</v>
+        <v>0.001609205228268832</v>
       </c>
       <c r="I16">
-        <v>-0.003580281767802818</v>
+        <v>-0.006186782768543482</v>
       </c>
       <c r="J16">
-        <v>0.002466220284130127</v>
+        <v>0.007700322050853803</v>
       </c>
       <c r="K16">
-        <v>0.002018524772185248</v>
+        <v>-0.008420652647197699</v>
       </c>
       <c r="L16">
-        <v>0.002018524772185248</v>
+        <v>-0.008420652647197699</v>
       </c>
       <c r="M16">
-        <v>0.002018524772185248</v>
+        <v>-0.008420652647197699</v>
       </c>
       <c r="N16">
-        <v>0.002018524772185248</v>
+        <v>-0.008420652647197699</v>
       </c>
       <c r="O16">
-        <v>0.002018524772185248</v>
+        <v>-0.008420652647197699</v>
       </c>
       <c r="P16">
-        <v>0.02227121437871214</v>
+        <v>-0.007634983009921612</v>
       </c>
       <c r="Q16">
-        <v>0.004811796348117964</v>
+        <v>-0.003619816017497126</v>
       </c>
       <c r="R16">
-        <v>0.004811796348117964</v>
+        <v>-0.003619816017497126</v>
       </c>
       <c r="S16">
-        <v>0.004811796348117964</v>
+        <v>-0.003619816017497126</v>
       </c>
       <c r="T16">
-        <v>0.004811796348117964</v>
+        <v>-0.003619816017497126</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C17">
-        <v>0.01829874139498741</v>
+        <v>0.02297160087455627</v>
       </c>
       <c r="D17">
-        <v>0.01176501519365015</v>
+        <v>0.01099503082804736</v>
       </c>
       <c r="E17">
-        <v>0.01378725808187258</v>
+        <v>0.003658920736858137</v>
       </c>
       <c r="F17">
-        <v>-0.01355231066752311</v>
+        <v>-0.005804236239128692</v>
       </c>
       <c r="G17">
-        <v>0.0131779901397799</v>
+        <v>0.00574768888668264</v>
       </c>
       <c r="I17">
-        <v>0.008626903838269038</v>
+        <v>0.005889178592018417</v>
       </c>
       <c r="J17">
-        <v>0.01328772236066513</v>
+        <v>-0.0003810434257042293</v>
       </c>
       <c r="K17">
-        <v>-0.01552293329922933</v>
+        <v>-0.01717995242468676</v>
       </c>
       <c r="L17">
-        <v>-0.01552293329922933</v>
+        <v>-0.01717995242468676</v>
       </c>
       <c r="M17">
-        <v>-0.01552293329922933</v>
+        <v>-0.01717995242468676</v>
       </c>
       <c r="N17">
-        <v>-0.01552293329922933</v>
+        <v>-0.01717995242468676</v>
       </c>
       <c r="O17">
-        <v>-0.01552293329922933</v>
+        <v>-0.01717995242468676</v>
       </c>
       <c r="P17">
-        <v>-0.01373233645732336</v>
+        <v>-0.006371123841736312</v>
       </c>
       <c r="Q17">
-        <v>-0.01582477428224774</v>
+        <v>-0.01476227662128557</v>
       </c>
       <c r="R17">
-        <v>-0.01582477428224774</v>
+        <v>-0.01476227662128557</v>
       </c>
       <c r="S17">
-        <v>-0.01582477428224774</v>
+        <v>-0.01476227662128557</v>
       </c>
       <c r="T17">
-        <v>-0.01582477428224774</v>
+        <v>-0.01476227662128557</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>0.01053734864137349</v>
+        <v>-0.002442002850656295</v>
       </c>
       <c r="D18">
-        <v>-0.001414514918145149</v>
+        <v>0.002837576856837139</v>
       </c>
       <c r="E18">
-        <v>0.001618847524188475</v>
+        <v>-0.004773711519901743</v>
       </c>
       <c r="F18">
-        <v>0.001011194482111945</v>
+        <v>0.007351344442989758</v>
       </c>
       <c r="G18">
-        <v>-0.002852564428525644</v>
+        <v>-0.01086626257603535</v>
       </c>
       <c r="I18">
-        <v>-0.009745361257453613</v>
+        <v>0.001166692916667077</v>
       </c>
       <c r="J18">
-        <v>0.005010106255398056</v>
+        <v>-0.0199483852330928</v>
       </c>
       <c r="K18">
-        <v>0.001998466435984664</v>
+        <v>-0.005494727453042617</v>
       </c>
       <c r="L18">
-        <v>0.001998466435984664</v>
+        <v>-0.005494727453042617</v>
       </c>
       <c r="M18">
-        <v>0.001998466435984664</v>
+        <v>-0.005494727453042617</v>
       </c>
       <c r="N18">
-        <v>0.001998466435984664</v>
+        <v>-0.005494727453042617</v>
       </c>
       <c r="O18">
-        <v>0.001998466435984664</v>
+        <v>-0.005494727453042617</v>
       </c>
       <c r="P18">
-        <v>0.0008730758967307589</v>
+        <v>0.007267761418246273</v>
       </c>
       <c r="Q18">
-        <v>0.004098942532989425</v>
+        <v>0.0009801526325023851</v>
       </c>
       <c r="R18">
-        <v>0.004098942532989425</v>
+        <v>0.0009801526325023851</v>
       </c>
       <c r="S18">
-        <v>0.004098942532989425</v>
+        <v>0.0009801526325023851</v>
       </c>
       <c r="T18">
-        <v>0.004098942532989425</v>
+        <v>0.0009801526325023851</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>0.01938691382586914</v>
+        <v>-0.002771089660485776</v>
       </c>
       <c r="D19">
-        <v>0.01707790277077903</v>
+        <v>-0.02570739963605312</v>
       </c>
       <c r="E19">
-        <v>0.004225419150254191</v>
+        <v>-0.005305702512589103</v>
       </c>
       <c r="F19">
-        <v>-0.0002982498629824987</v>
+        <v>0.007666398471349977</v>
       </c>
       <c r="G19">
-        <v>-0.002045624120456241</v>
+        <v>-0.008088663009197861</v>
       </c>
       <c r="I19">
-        <v>0.003072728670727287</v>
+        <v>-0.02349339678895933</v>
       </c>
       <c r="J19">
-        <v>-0.01309475824183821</v>
+        <v>0.009097634751095344</v>
       </c>
       <c r="K19">
-        <v>-0.009664752684647527</v>
+        <v>0.008704076151626191</v>
       </c>
       <c r="L19">
-        <v>-0.009664752684647527</v>
+        <v>0.008704076151626191</v>
       </c>
       <c r="M19">
-        <v>-0.009664752684647527</v>
+        <v>0.008704076151626191</v>
       </c>
       <c r="N19">
-        <v>-0.009664752684647527</v>
+        <v>0.008704076151626191</v>
       </c>
       <c r="O19">
-        <v>-0.009664752684647527</v>
+        <v>0.008704076151626191</v>
       </c>
       <c r="P19">
-        <v>-0.0007398226993982269</v>
+        <v>0.007619798275309349</v>
       </c>
       <c r="Q19">
-        <v>-0.007852324146523241</v>
+        <v>0.00927074611360541</v>
       </c>
       <c r="R19">
-        <v>-0.007852324146523241</v>
+        <v>0.00927074611360541</v>
       </c>
       <c r="S19">
-        <v>-0.007852324146523241</v>
+        <v>0.00927074611360541</v>
       </c>
       <c r="T19">
-        <v>-0.007852324146523241</v>
+        <v>0.00927074611360541</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C20">
-        <v>0.0007348962073489622</v>
+        <v>0.008535222391175353</v>
       </c>
       <c r="D20">
-        <v>-0.007641676312416763</v>
+        <v>0.006780813410637711</v>
       </c>
       <c r="E20">
-        <v>0.002443706652437067</v>
+        <v>0.002606895743857746</v>
       </c>
       <c r="F20">
-        <v>-0.007075966294759662</v>
+        <v>-0.003314672676791761</v>
       </c>
       <c r="G20">
-        <v>0.009510582143105822</v>
+        <v>0.005016107258064176</v>
       </c>
       <c r="I20">
-        <v>-0.01320343633203436</v>
+        <v>-0.0006481636038775565</v>
       </c>
       <c r="J20">
-        <v>0.0002146991371453423</v>
+        <v>-0.008619437846856322</v>
       </c>
       <c r="K20">
-        <v>0.0006004884420048843</v>
+        <v>-0.02630839280950614</v>
       </c>
       <c r="L20">
-        <v>0.0006004884420048843</v>
+        <v>-0.02630839280950614</v>
       </c>
       <c r="M20">
-        <v>0.0006004884420048843</v>
+        <v>-0.02630839280950614</v>
       </c>
       <c r="N20">
-        <v>0.0006004884420048843</v>
+        <v>-0.02630839280950614</v>
       </c>
       <c r="O20">
-        <v>0.0006004884420048843</v>
+        <v>-0.02630839280950614</v>
       </c>
       <c r="P20">
-        <v>-0.006514879673148796</v>
+        <v>-0.0037793215199894</v>
       </c>
       <c r="Q20">
-        <v>-0.004267361730673617</v>
+        <v>-0.02445990244468598</v>
       </c>
       <c r="R20">
-        <v>-0.004267361730673617</v>
+        <v>-0.02445990244468598</v>
       </c>
       <c r="S20">
-        <v>-0.004267361730673617</v>
+        <v>-0.02445990244468598</v>
       </c>
       <c r="T20">
-        <v>-0.004267361730673617</v>
+        <v>-0.02445990244468598</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21">
-        <v>0.01469883473098835</v>
+        <v>0.005087066634172918</v>
       </c>
       <c r="D21">
-        <v>0.004832216064322161</v>
+        <v>-0.0001334091348970178</v>
       </c>
       <c r="E21">
-        <v>0.01597924590379246</v>
+        <v>-0.01156062013375969</v>
       </c>
       <c r="F21">
-        <v>-0.01646164197261642</v>
+        <v>0.013662911885358</v>
       </c>
       <c r="G21">
-        <v>0.01669764481097645</v>
+        <v>-0.01576718187917472</v>
       </c>
       <c r="I21">
-        <v>0.01450124726501247</v>
+        <v>-0.01622632340197381</v>
       </c>
       <c r="J21">
-        <v>0.01006734346548658</v>
+        <v>-0.01341774306145317</v>
       </c>
       <c r="K21">
-        <v>-0.004576110621761107</v>
+        <v>0.02285746266183536</v>
       </c>
       <c r="L21">
-        <v>-0.004576110621761107</v>
+        <v>0.02285746266183536</v>
       </c>
       <c r="M21">
-        <v>-0.004576110621761107</v>
+        <v>0.02285746266183536</v>
       </c>
       <c r="N21">
-        <v>-0.004576110621761107</v>
+        <v>0.02285746266183536</v>
       </c>
       <c r="O21">
-        <v>-0.004576110621761107</v>
+        <v>0.02285746266183536</v>
       </c>
       <c r="P21">
-        <v>-0.0163489796474898</v>
+        <v>0.01425783894152874</v>
       </c>
       <c r="Q21">
-        <v>-0.01035231653552316</v>
+        <v>0.02485717191964332</v>
       </c>
       <c r="R21">
-        <v>-0.01035231653552316</v>
+        <v>0.02485717191964332</v>
       </c>
       <c r="S21">
-        <v>-0.01035231653552316</v>
+        <v>0.02485717191964332</v>
       </c>
       <c r="T21">
-        <v>-0.01035231653552316</v>
+        <v>0.02485717191964332</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C22">
-        <v>-0.01514671129946711</v>
+        <v>-0.007006040476656883</v>
       </c>
       <c r="D22">
-        <v>-7.972794079727941E-05</v>
+        <v>0.0117859004966547</v>
       </c>
       <c r="E22">
-        <v>-0.01264396192243962</v>
+        <v>0.003917025740891028</v>
       </c>
       <c r="F22">
-        <v>0.006788190703881907</v>
+        <v>-0.004563032860359888</v>
       </c>
       <c r="G22">
-        <v>-0.002181299757812998</v>
+        <v>0.004643659127244675</v>
       </c>
       <c r="I22">
-        <v>0.009439895290398953</v>
+        <v>0.00479632830931763</v>
       </c>
       <c r="J22">
-        <v>0.002066439912273345</v>
+        <v>0.003905138048027353</v>
       </c>
       <c r="K22">
-        <v>-0.00273150103531501</v>
+        <v>-0.01489321781083153</v>
       </c>
       <c r="L22">
-        <v>-0.00273150103531501</v>
+        <v>-0.01489321781083153</v>
       </c>
       <c r="M22">
-        <v>-0.00273150103531501</v>
+        <v>-0.01489321781083153</v>
       </c>
       <c r="N22">
-        <v>-0.00273150103531501</v>
+        <v>-0.01489321781083153</v>
       </c>
       <c r="O22">
-        <v>-0.00273150103531501</v>
+        <v>-0.01489321781083153</v>
       </c>
       <c r="P22">
-        <v>0.006675976326759763</v>
+        <v>-0.004727446058241346</v>
       </c>
       <c r="Q22">
-        <v>-0.003054666726546668</v>
+        <v>-0.0130777023684016</v>
       </c>
       <c r="R22">
-        <v>-0.003054666726546668</v>
+        <v>-0.0130777023684016</v>
       </c>
       <c r="S22">
-        <v>-0.003054666726546668</v>
+        <v>-0.0130777023684016</v>
       </c>
       <c r="T22">
-        <v>-0.003054666726546668</v>
+        <v>-0.0130777023684016</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23">
-        <v>0.003402512758025127</v>
+        <v>-0.01152154653939917</v>
       </c>
       <c r="D23">
-        <v>0.01001911825619118</v>
+        <v>-0.02077025807453528</v>
       </c>
       <c r="E23">
-        <v>0.00520190801201908</v>
+        <v>0.001376349560567962</v>
       </c>
       <c r="F23">
-        <v>-0.007237095396370954</v>
+        <v>-0.003084593110696768</v>
       </c>
       <c r="G23">
-        <v>0.008045289944452898</v>
+        <v>0.003014664211166629</v>
       </c>
       <c r="I23">
-        <v>-0.001195375727953757</v>
+        <v>-0.01713307601770432</v>
       </c>
       <c r="J23">
-        <v>0.007670427742371766</v>
+        <v>0.01747317146800028</v>
       </c>
       <c r="K23">
-        <v>-0.002349959207499592</v>
+        <v>-0.002556625844634779</v>
       </c>
       <c r="L23">
-        <v>-0.002349959207499592</v>
+        <v>-0.002556625844634779</v>
       </c>
       <c r="M23">
-        <v>-0.002349959207499592</v>
+        <v>-0.002556625844634779</v>
       </c>
       <c r="N23">
-        <v>-0.002349959207499592</v>
+        <v>-0.002556625844634779</v>
       </c>
       <c r="O23">
-        <v>-0.002349959207499592</v>
+        <v>-0.002556625844634779</v>
       </c>
       <c r="P23">
-        <v>-0.007191616823916168</v>
+        <v>-0.002832159864564998</v>
       </c>
       <c r="Q23">
-        <v>-0.005140902411409024</v>
+        <v>-0.003764282332254412</v>
       </c>
       <c r="R23">
-        <v>-0.005140902411409024</v>
+        <v>-0.003764282332254412</v>
       </c>
       <c r="S23">
-        <v>-0.005140902411409024</v>
+        <v>-0.003764282332254412</v>
       </c>
       <c r="T23">
-        <v>-0.005140902411409024</v>
+        <v>-0.003764282332254412</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C24">
-        <v>0.0005043613250436133</v>
+        <v>0.001667868658872948</v>
       </c>
       <c r="D24">
-        <v>-0.01110188474701885</v>
+        <v>0.001018814640918979</v>
       </c>
       <c r="E24">
-        <v>0.001872271638722716</v>
+        <v>0.002360151200939862</v>
       </c>
       <c r="F24">
-        <v>-0.003283184552831845</v>
+        <v>-0.005218289964348282</v>
       </c>
       <c r="G24">
-        <v>0.003061260234612602</v>
+        <v>0.009071235422988055</v>
       </c>
       <c r="I24">
-        <v>-0.009455678350556784</v>
+        <v>0.007259595839993686</v>
       </c>
       <c r="J24">
-        <v>-0.002814447425231655</v>
+        <v>0.00562763662205792</v>
       </c>
       <c r="K24">
-        <v>7.580191275801913E-05</v>
+        <v>-0.0108614654822104</v>
       </c>
       <c r="L24">
-        <v>7.580191275801913E-05</v>
+        <v>-0.0108614654822104</v>
       </c>
       <c r="M24">
-        <v>7.580191275801913E-05</v>
+        <v>-0.0108614654822104</v>
       </c>
       <c r="N24">
-        <v>7.580191275801913E-05</v>
+        <v>-0.0108614654822104</v>
       </c>
       <c r="O24">
-        <v>7.580191275801913E-05</v>
+        <v>-0.0108614654822104</v>
       </c>
       <c r="P24">
-        <v>-0.003030507822305078</v>
+        <v>-0.005404124264126943</v>
       </c>
       <c r="Q24">
-        <v>-0.001622441344224413</v>
+        <v>-0.01461606308775099</v>
       </c>
       <c r="R24">
-        <v>-0.001622441344224413</v>
+        <v>-0.01461606308775099</v>
       </c>
       <c r="S24">
-        <v>-0.001622441344224413</v>
+        <v>-0.01461606308775099</v>
       </c>
       <c r="T24">
-        <v>-0.001622441344224413</v>
+        <v>-0.01461606308775099</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25">
-        <v>-0.009960148143601482</v>
+        <v>-0.02158525477476961</v>
       </c>
       <c r="D25">
-        <v>0.001704990857049909</v>
+        <v>-0.01706367614943245</v>
       </c>
       <c r="E25">
-        <v>-0.01325625303656253</v>
+        <v>-0.004642118439720601</v>
       </c>
       <c r="F25">
-        <v>0.01168437111284371</v>
+        <v>0.005496195015565548</v>
       </c>
       <c r="G25">
-        <v>-0.01038091818780918</v>
+        <v>-0.006191342768614732</v>
       </c>
       <c r="I25">
-        <v>-0.005148683247486832</v>
+        <v>-0.0067861887544717</v>
       </c>
       <c r="J25">
-        <v>-0.01225265032750133</v>
+        <v>0.01271582205501612</v>
       </c>
       <c r="K25">
-        <v>0.0002410438104104381</v>
+        <v>0.009264169340065147</v>
       </c>
       <c r="L25">
-        <v>0.0002410438104104381</v>
+        <v>0.009264169340065147</v>
       </c>
       <c r="M25">
-        <v>0.0002410438104104381</v>
+        <v>0.009264169340065147</v>
       </c>
       <c r="N25">
-        <v>0.0002410438104104381</v>
+        <v>0.009264169340065147</v>
       </c>
       <c r="O25">
-        <v>0.0002410438104104381</v>
+        <v>0.009264169340065147</v>
       </c>
       <c r="P25">
-        <v>0.01177217541372175</v>
+        <v>0.00573545336305396</v>
       </c>
       <c r="Q25">
-        <v>0.002729362959293629</v>
+        <v>0.01030370847349545</v>
       </c>
       <c r="R25">
-        <v>0.002729362959293629</v>
+        <v>0.01030370847349545</v>
       </c>
       <c r="S25">
-        <v>0.002729362959293629</v>
+        <v>0.01030370847349545</v>
       </c>
       <c r="T25">
-        <v>0.002729362959293629</v>
+        <v>0.01030370847349545</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C26">
-        <v>-0.001485395462853954</v>
+        <v>-0.004624705572261025</v>
       </c>
       <c r="D26">
-        <v>-0.01081725564017256</v>
+        <v>0.007981843437216304</v>
       </c>
       <c r="E26">
-        <v>-0.004029473200294732</v>
+        <v>-0.002518732679980199</v>
       </c>
       <c r="F26">
-        <v>-0.001069293562692936</v>
+        <v>0.002013544718961637</v>
       </c>
       <c r="G26">
-        <v>0.003420812674208126</v>
+        <v>-0.004040742883449109</v>
       </c>
       <c r="I26">
-        <v>-0.009126352555263525</v>
+        <v>0.007410993701734279</v>
       </c>
       <c r="J26">
-        <v>0.0161490922885842</v>
+        <v>0.003990584717730737</v>
       </c>
       <c r="K26">
-        <v>-0.01187318245073182</v>
+        <v>-0.007572093633938964</v>
       </c>
       <c r="L26">
-        <v>-0.01187318245073182</v>
+        <v>-0.007572093633938964</v>
       </c>
       <c r="M26">
-        <v>-0.01187318245073182</v>
+        <v>-0.007572093633938964</v>
       </c>
       <c r="N26">
-        <v>-0.01187318245073182</v>
+        <v>-0.007572093633938964</v>
       </c>
       <c r="O26">
-        <v>-0.01187318245073182</v>
+        <v>-0.007572093633938964</v>
       </c>
       <c r="P26">
-        <v>-0.0007903424119034241</v>
+        <v>0.001619885884685717</v>
       </c>
       <c r="Q26">
-        <v>-0.01206118688461187</v>
+        <v>-0.005734190363034225</v>
       </c>
       <c r="R26">
-        <v>-0.01206118688461187</v>
+        <v>-0.005734190363034225</v>
       </c>
       <c r="S26">
-        <v>-0.01206118688461187</v>
+        <v>-0.005734190363034225</v>
       </c>
       <c r="T26">
-        <v>-0.01206118688461187</v>
+        <v>-0.005734190363034225</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C27">
-        <v>-0.0008212934242129343</v>
+        <v>0.014594176024909</v>
       </c>
       <c r="D27">
-        <v>-0.001261675212616752</v>
+        <v>0.02903286291457599</v>
       </c>
       <c r="E27">
-        <v>0.007393372693933727</v>
+        <v>0.007486314023223657</v>
       </c>
       <c r="F27">
-        <v>-0.003526867295268673</v>
+        <v>-0.008606672079791752</v>
       </c>
       <c r="G27">
-        <v>0.0009524397455243976</v>
+        <v>0.007355244044613189</v>
       </c>
       <c r="I27">
-        <v>0.001303277713032777</v>
+        <v>0.01278971014515172</v>
       </c>
       <c r="J27">
-        <v>-0.01508806543704016</v>
+        <v>-0.01138742426632986</v>
       </c>
       <c r="K27">
-        <v>0.000634782702347827</v>
+        <v>-0.002222088058157626</v>
       </c>
       <c r="L27">
-        <v>0.000634782702347827</v>
+        <v>-0.002222088058157626</v>
       </c>
       <c r="M27">
-        <v>0.000634782702347827</v>
+        <v>-0.002222088058157626</v>
       </c>
       <c r="N27">
-        <v>0.000634782702347827</v>
+        <v>-0.002222088058157626</v>
       </c>
       <c r="O27">
-        <v>0.000634782702347827</v>
+        <v>-0.002222088058157626</v>
       </c>
       <c r="P27">
-        <v>-0.003496462270964623</v>
+        <v>-0.008494125999908219</v>
       </c>
       <c r="Q27">
-        <v>0.002259070594590706</v>
+        <v>-0.003278230762159856</v>
       </c>
       <c r="R27">
-        <v>0.002259070594590706</v>
+        <v>-0.003278230762159856</v>
       </c>
       <c r="S27">
-        <v>0.002259070594590706</v>
+        <v>-0.003278230762159856</v>
       </c>
       <c r="T27">
-        <v>0.002259070594590706</v>
+        <v>-0.003278230762159856</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>0.002740852107408521</v>
+        <v>0.002842533653789589</v>
       </c>
       <c r="D28">
-        <v>0.01474209685542097</v>
+        <v>0.009685264065394753</v>
       </c>
       <c r="E28">
-        <v>0.0004823535768235357</v>
+        <v>-0.003871654208932098</v>
       </c>
       <c r="F28">
-        <v>0.002447454780474548</v>
+        <v>-0.001085921571655025</v>
       </c>
       <c r="G28">
-        <v>-0.003980441211804412</v>
+        <v>0.00711184443143507</v>
       </c>
       <c r="I28">
-        <v>0.00498071293380713</v>
+        <v>0.005371526943305109</v>
       </c>
       <c r="J28">
-        <v>-0.005036602393786225</v>
+        <v>-0.002974065236157098</v>
       </c>
       <c r="K28">
-        <v>0.002771783799717838</v>
+        <v>0.003011251336113303</v>
       </c>
       <c r="L28">
-        <v>0.002771783799717838</v>
+        <v>0.003011251336113303</v>
       </c>
       <c r="M28">
-        <v>0.002771783799717838</v>
+        <v>0.003011251336113303</v>
       </c>
       <c r="N28">
-        <v>0.002771783799717838</v>
+        <v>0.003011251336113303</v>
       </c>
       <c r="O28">
-        <v>0.002771783799717838</v>
+        <v>0.003011251336113303</v>
       </c>
       <c r="P28">
-        <v>0.002113091589130916</v>
+        <v>-0.0007998463953101001</v>
       </c>
       <c r="Q28">
-        <v>0.003573903215739032</v>
+        <v>-0.002682466893476045</v>
       </c>
       <c r="R28">
-        <v>0.003573903215739032</v>
+        <v>-0.002682466893476045</v>
       </c>
       <c r="S28">
-        <v>0.003573903215739032</v>
+        <v>-0.002682466893476045</v>
       </c>
       <c r="T28">
-        <v>0.003573903215739032</v>
+        <v>-0.002682466893476045</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C29">
-        <v>-0.02475973123959731</v>
+        <v>-0.02856588208696691</v>
       </c>
       <c r="D29">
-        <v>-0.005577593131775931</v>
+        <v>0.01144191936627999</v>
       </c>
       <c r="E29">
-        <v>-0.03077895571978956</v>
+        <v>-0.02937010965422047</v>
       </c>
       <c r="F29">
-        <v>0.00372811401728114</v>
+        <v>0.007047500992929704</v>
       </c>
       <c r="G29">
-        <v>0.01600242568002426</v>
+        <v>0.01041235122519299</v>
       </c>
       <c r="I29">
-        <v>5.76098405760984E-05</v>
+        <v>0.01084222200534722</v>
       </c>
       <c r="J29">
-        <v>0.002270071281256544</v>
+        <v>0.008077848374924132</v>
       </c>
       <c r="K29">
-        <v>0.01783497593834976</v>
+        <v>0.02249365978115094</v>
       </c>
       <c r="L29">
-        <v>0.01783497593834976</v>
+        <v>0.02249365978115094</v>
       </c>
       <c r="M29">
-        <v>0.01783497593834976</v>
+        <v>0.02249365978115094</v>
       </c>
       <c r="N29">
-        <v>0.01783497593834976</v>
+        <v>0.02249365978115094</v>
       </c>
       <c r="O29">
-        <v>0.01783497593834976</v>
+        <v>0.02249365978115094</v>
       </c>
       <c r="P29">
-        <v>0.004913311693133117</v>
+        <v>0.00820915958139312</v>
       </c>
       <c r="Q29">
-        <v>0.001812249930122499</v>
+        <v>0.007207391128240488</v>
       </c>
       <c r="R29">
-        <v>0.001812249930122499</v>
+        <v>0.007207391128240488</v>
       </c>
       <c r="S29">
-        <v>0.001812249930122499</v>
+        <v>0.007207391128240488</v>
       </c>
       <c r="T29">
-        <v>0.001812249930122499</v>
+        <v>0.007207391128240488</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C30">
-        <v>-0.002186169213861692</v>
+        <v>0.02171978637843417</v>
       </c>
       <c r="D30">
-        <v>0.004842115728421158</v>
+        <v>0.00527271484019867</v>
       </c>
       <c r="E30">
-        <v>0.01041719549617195</v>
+        <v>0.01002614635978354</v>
       </c>
       <c r="F30">
-        <v>-0.01623764545837645</v>
+        <v>-0.01775698485557789</v>
       </c>
       <c r="G30">
-        <v>0.02045999563259996</v>
+        <v>0.02171223863612873</v>
       </c>
       <c r="I30">
-        <v>0.01197390898773909</v>
+        <v>0.01134636910697452</v>
       </c>
       <c r="J30">
-        <v>0.01699660232700023</v>
+        <v>-0.0009442246832309987</v>
       </c>
       <c r="K30">
-        <v>-0.001517185755171858</v>
+        <v>-0.005033625711462902</v>
       </c>
       <c r="L30">
-        <v>-0.001517185755171858</v>
+        <v>-0.005033625711462902</v>
       </c>
       <c r="M30">
-        <v>-0.001517185755171858</v>
+        <v>-0.005033625711462902</v>
       </c>
       <c r="N30">
-        <v>-0.001517185755171858</v>
+        <v>-0.005033625711462902</v>
       </c>
       <c r="O30">
-        <v>-0.001517185755171858</v>
+        <v>-0.005033625711462902</v>
       </c>
       <c r="P30">
-        <v>-0.01623212067032121</v>
+        <v>-0.01728476912163702</v>
       </c>
       <c r="Q30">
-        <v>-0.008689043558890436</v>
+        <v>-0.01425727887901999</v>
       </c>
       <c r="R30">
-        <v>-0.008689043558890436</v>
+        <v>-0.01425727887901999</v>
       </c>
       <c r="S30">
-        <v>-0.008689043558890436</v>
+        <v>-0.01425727887901999</v>
       </c>
       <c r="T30">
-        <v>-0.008689043558890436</v>
+        <v>-0.01425727887901999</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C31">
-        <v>0.0008139759801397598</v>
+        <v>-0.01040380591255947</v>
       </c>
       <c r="D31">
-        <v>-0.01621171205411712</v>
+        <v>0.001742901050670329</v>
       </c>
       <c r="E31">
-        <v>-0.002281385374813853</v>
+        <v>0.0004910784451731008</v>
       </c>
       <c r="F31">
-        <v>0.01376186117361861</v>
+        <v>0.001834809895856405</v>
       </c>
       <c r="G31">
-        <v>-0.01881744670417447</v>
+        <v>-0.0007696506448382914</v>
       </c>
       <c r="I31">
-        <v>-0.01734872147348722</v>
+        <v>0.007967830015122345</v>
       </c>
       <c r="J31">
-        <v>-0.004560770760815291</v>
+        <v>0.001625242193149936</v>
       </c>
       <c r="K31">
-        <v>0.004989290401892904</v>
+        <v>0.0173709954276718</v>
       </c>
       <c r="L31">
-        <v>0.004989290401892904</v>
+        <v>0.0173709954276718</v>
       </c>
       <c r="M31">
-        <v>0.004989290401892904</v>
+        <v>0.0173709954276718</v>
       </c>
       <c r="N31">
-        <v>0.004989290401892904</v>
+        <v>0.0173709954276718</v>
       </c>
       <c r="O31">
-        <v>0.004989290401892904</v>
+        <v>0.0173709954276718</v>
       </c>
       <c r="P31">
-        <v>0.01289683526096835</v>
+        <v>0.001165925291655083</v>
       </c>
       <c r="Q31">
-        <v>0.01304455264644553</v>
+        <v>0.01796987174952925</v>
       </c>
       <c r="R31">
-        <v>0.01304455264644553</v>
+        <v>0.01796987174952925</v>
       </c>
       <c r="S31">
-        <v>0.01304455264644553</v>
+        <v>0.01796987174952925</v>
       </c>
       <c r="T31">
-        <v>0.01304455264644553</v>
+        <v>0.01796987174952925</v>
       </c>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C32">
-        <v>-0.005622247592222477</v>
+        <v>-0.009447274038238659</v>
       </c>
       <c r="D32">
-        <v>-0.002000245952002459</v>
+        <v>0.0008118716611229948</v>
       </c>
       <c r="E32">
-        <v>-0.003283204556832045</v>
+        <v>-0.003745175331955865</v>
       </c>
       <c r="F32">
-        <v>-0.001966894603668946</v>
+        <v>0.01097788320277943</v>
       </c>
       <c r="G32">
-        <v>0.005663230352632304</v>
+        <v>-0.01323365704271339</v>
       </c>
       <c r="I32">
-        <v>0.005515596079155961</v>
+        <v>-0.001976308132442315</v>
       </c>
       <c r="J32">
-        <v>0.02721937588476385</v>
+        <v>0.0114717405219478</v>
       </c>
       <c r="K32">
-        <v>-0.00458577689785777</v>
+        <v>0.0106826938622296</v>
       </c>
       <c r="L32">
-        <v>-0.00458577689785777</v>
+        <v>0.0106826938622296</v>
       </c>
       <c r="M32">
-        <v>-0.00458577689785777</v>
+        <v>0.0106826938622296</v>
       </c>
       <c r="N32">
-        <v>-0.00458577689785777</v>
+        <v>0.0106826938622296</v>
       </c>
       <c r="O32">
-        <v>-0.00458577689785777</v>
+        <v>0.0106826938622296</v>
       </c>
       <c r="P32">
-        <v>-0.001869755838697558</v>
+        <v>0.01045392337428005</v>
       </c>
       <c r="Q32">
-        <v>-0.007010362306103623</v>
+        <v>0.01479183925455999</v>
       </c>
       <c r="R32">
-        <v>-0.007010362306103623</v>
+        <v>0.01479183925455999</v>
       </c>
       <c r="S32">
-        <v>-0.007010362306103623</v>
+        <v>0.01479183925455999</v>
       </c>
       <c r="T32">
-        <v>-0.007010362306103623</v>
+        <v>0.01479183925455999</v>
       </c>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C33">
-        <v>0.396818294996183</v>
+        <v>0.3865961053765017</v>
       </c>
       <c r="D33">
-        <v>0.003653658888536589</v>
+        <v>-0.005672794541762415</v>
       </c>
       <c r="E33">
-        <v>0.9343948185319482</v>
+        <v>0.9328937653811529</v>
       </c>
       <c r="F33">
-        <v>-0.9975685429116853</v>
+        <v>-0.9975527265945739</v>
       </c>
       <c r="G33">
-        <v>0.9664406449484064</v>
+        <v>0.9666787868309187</v>
       </c>
       <c r="I33">
-        <v>0.3219797111317971</v>
+        <v>0.3164984105390377</v>
       </c>
       <c r="J33">
-        <v>0.1903046613219633</v>
+        <v>0.1833669254021794</v>
       </c>
       <c r="K33">
-        <v>-0.4581325360413254</v>
+        <v>-0.4424922078983158</v>
       </c>
       <c r="L33">
-        <v>-0.4581325360413254</v>
+        <v>-0.4424922078983158</v>
       </c>
       <c r="M33">
-        <v>-0.4581325360413254</v>
+        <v>-0.4424922078983158</v>
       </c>
       <c r="N33">
-        <v>-0.4581325360413254</v>
+        <v>-0.4424922078983158</v>
       </c>
       <c r="O33">
-        <v>-0.4581325360413254</v>
+        <v>-0.4424922078983158</v>
       </c>
       <c r="P33">
-        <v>-0.9968650724606508</v>
+        <v>-0.9968122958330048</v>
       </c>
       <c r="Q33">
-        <v>-0.6468978291969782</v>
+        <v>-0.6412304135973503</v>
       </c>
       <c r="R33">
-        <v>-0.6468978291969782</v>
+        <v>-0.6412304135973503</v>
       </c>
       <c r="S33">
-        <v>-0.6468978291969782</v>
+        <v>-0.6412304135973503</v>
       </c>
       <c r="T33">
-        <v>-0.6468978291969782</v>
+        <v>-0.6412304135973503</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C34">
-        <v>0.004385885155858852</v>
+        <v>0.02319564891711952</v>
       </c>
       <c r="D34">
-        <v>-0.00284086194440862</v>
+        <v>0.00213115580673681</v>
       </c>
       <c r="E34">
-        <v>0.06799148656391486</v>
+        <v>0.05514826476012915</v>
       </c>
       <c r="F34">
-        <v>-0.07605557735255576</v>
+        <v>-0.05630757938761845</v>
       </c>
       <c r="G34">
-        <v>0.07278788235187883</v>
+        <v>0.05115310893989234</v>
       </c>
       <c r="I34">
-        <v>0.0612703502167035</v>
+        <v>0.04864356240068068</v>
       </c>
       <c r="J34">
-        <v>0.0140769009982266</v>
+        <v>0.02528328734530174</v>
       </c>
       <c r="K34">
-        <v>-0.03598790120387901</v>
+        <v>-0.02186863184950988</v>
       </c>
       <c r="L34">
-        <v>-0.03598790120387901</v>
+        <v>-0.02186863184950988</v>
       </c>
       <c r="M34">
-        <v>-0.03598790120387901</v>
+        <v>-0.02186863184950988</v>
       </c>
       <c r="N34">
-        <v>-0.03598790120387901</v>
+        <v>-0.02186863184950988</v>
       </c>
       <c r="O34">
-        <v>-0.03598790120387901</v>
+        <v>-0.02186863184950988</v>
       </c>
       <c r="P34">
-        <v>-0.07612637876926379</v>
+        <v>-0.05680048014532001</v>
       </c>
       <c r="Q34">
-        <v>-0.04974765464947655</v>
+        <v>-0.03135009184922018</v>
       </c>
       <c r="R34">
-        <v>-0.04974765464947655</v>
+        <v>-0.03135009184922018</v>
       </c>
       <c r="S34">
-        <v>-0.04974765464947655</v>
+        <v>-0.03135009184922018</v>
       </c>
       <c r="T34">
-        <v>-0.04974765464947655</v>
+        <v>-0.03135009184922018</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C35">
-        <v>-0.002893099816930998</v>
+        <v>-0.005728791816074873</v>
       </c>
       <c r="D35">
-        <v>0.006341509179415093</v>
+        <v>-0.02401827414872304</v>
       </c>
       <c r="E35">
-        <v>0.002240857486408575</v>
+        <v>0.007613524501773822</v>
       </c>
       <c r="F35">
-        <v>-0.005509587331095874</v>
+        <v>-0.005560270797816732</v>
       </c>
       <c r="G35">
-        <v>0.006108003349080034</v>
+        <v>0.001437164342768193</v>
       </c>
       <c r="I35">
-        <v>0.01035884405558844</v>
+        <v>-0.01103401257084395</v>
       </c>
       <c r="J35">
-        <v>0.02535068242138749</v>
+        <v>0.001265278842092399</v>
       </c>
       <c r="K35">
-        <v>0.02087486328474863</v>
+        <v>0.03544243107722549</v>
       </c>
       <c r="L35">
-        <v>0.02087486328474863</v>
+        <v>0.03544243107722549</v>
       </c>
       <c r="M35">
-        <v>0.02087486328474863</v>
+        <v>0.03544243107722549</v>
       </c>
       <c r="N35">
-        <v>0.02087486328474863</v>
+        <v>0.03544243107722549</v>
       </c>
       <c r="O35">
-        <v>0.02087486328474863</v>
+        <v>0.03544243107722549</v>
       </c>
       <c r="P35">
-        <v>-0.004192574633925747</v>
+        <v>-0.004065377407271522</v>
       </c>
       <c r="Q35">
-        <v>0.01382204338222043</v>
+        <v>0.03285644692744449</v>
       </c>
       <c r="R35">
-        <v>0.01382204338222043</v>
+        <v>0.03285644692744449</v>
       </c>
       <c r="S35">
-        <v>0.01382204338222043</v>
+        <v>0.03285644692744449</v>
       </c>
       <c r="T35">
-        <v>0.01382204338222043</v>
+        <v>0.03285644692744449</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>0.004664005150640051</v>
+        <v>0.00126417149631518</v>
       </c>
       <c r="D36">
-        <v>-0.00246730699267307</v>
+        <v>-0.01595291422582679</v>
       </c>
       <c r="E36">
-        <v>0.004587496725874968</v>
+        <v>0.01336182831815357</v>
       </c>
       <c r="F36">
-        <v>0.00107166503871665</v>
+        <v>-0.01443062068641595</v>
       </c>
       <c r="G36">
-        <v>-0.005581939243819393</v>
+        <v>0.01376813175418956</v>
       </c>
       <c r="I36">
-        <v>-0.004008522484085226</v>
+        <v>3.201386768771669E-05</v>
       </c>
       <c r="J36">
-        <v>0.0133770714939741</v>
+        <v>-0.008702118704003559</v>
       </c>
       <c r="K36">
-        <v>0.8452917876169179</v>
+        <v>0.8466531756898935</v>
       </c>
       <c r="L36">
-        <v>0.8452917876169179</v>
+        <v>0.8466531756898935</v>
       </c>
       <c r="M36">
-        <v>0.8452917876169179</v>
+        <v>0.8466531756898935</v>
       </c>
       <c r="N36">
-        <v>0.8452917876169179</v>
+        <v>0.8466531756898935</v>
       </c>
       <c r="O36">
-        <v>0.8452917876169179</v>
+        <v>0.8466531756898935</v>
       </c>
       <c r="P36">
-        <v>0.02180185574601856</v>
+        <v>0.006688897417014023</v>
       </c>
       <c r="Q36">
-        <v>0.7229496975294969</v>
+        <v>0.7172414263397099</v>
       </c>
       <c r="R36">
-        <v>0.7229496975294969</v>
+        <v>0.7172414263397099</v>
       </c>
       <c r="S36">
-        <v>0.7229496975294969</v>
+        <v>0.7172414263397099</v>
       </c>
       <c r="T36">
-        <v>0.7229496975294969</v>
+        <v>0.7172414263397099</v>
       </c>
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C37">
-        <v>0.01223641122236411</v>
+        <v>0.006096733548386462</v>
       </c>
       <c r="D37">
-        <v>-0.01519095769990958</v>
+        <v>-0.004795681270245021</v>
       </c>
       <c r="E37">
-        <v>0.00796060899160609</v>
+        <v>0.0170176126018377</v>
       </c>
       <c r="F37">
-        <v>-0.004733190107331901</v>
+        <v>-0.01692411802225185</v>
       </c>
       <c r="G37">
-        <v>0.00353121697131217</v>
+        <v>0.01444922935858171</v>
       </c>
       <c r="I37">
-        <v>-0.009463308046633079</v>
+        <v>0.006043437633491214</v>
       </c>
       <c r="J37">
-        <v>-0.008876858776045981</v>
+        <v>0.001425019622679012</v>
       </c>
       <c r="K37">
-        <v>0.006066985056669851</v>
+        <v>-0.006026303437910992</v>
       </c>
       <c r="L37">
-        <v>0.006066985056669851</v>
+        <v>-0.006026303437910992</v>
       </c>
       <c r="M37">
-        <v>0.006066985056669851</v>
+        <v>-0.006026303437910992</v>
       </c>
       <c r="N37">
-        <v>0.006066985056669851</v>
+        <v>-0.006026303437910992</v>
       </c>
       <c r="O37">
-        <v>0.006066985056669851</v>
+        <v>-0.006026303437910992</v>
       </c>
       <c r="P37">
-        <v>-0.004541208405412084</v>
+        <v>-0.01695731553058306</v>
       </c>
       <c r="Q37">
-        <v>0.006270006326700063</v>
+        <v>-0.00950482683601292</v>
       </c>
       <c r="R37">
-        <v>0.006270006326700063</v>
+        <v>-0.00950482683601292</v>
       </c>
       <c r="S37">
-        <v>0.006270006326700063</v>
+        <v>-0.00950482683601292</v>
       </c>
       <c r="T37">
-        <v>0.006270006326700063</v>
+        <v>-0.00950482683601292</v>
       </c>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C38">
-        <v>-0.01086838404068384</v>
+        <v>0.00232174395815225</v>
       </c>
       <c r="D38">
-        <v>-0.01165142259251423</v>
+        <v>0.01924398648818729</v>
       </c>
       <c r="E38">
-        <v>0.002668345106683451</v>
+        <v>-0.002639301111551581</v>
       </c>
       <c r="F38">
-        <v>-0.002251189306511893</v>
+        <v>0.006191156932674328</v>
       </c>
       <c r="G38">
-        <v>0.002882226412822265</v>
+        <v>-0.007487101710735965</v>
       </c>
       <c r="I38">
-        <v>-0.003236849852368499</v>
+        <v>0.01765072269766754</v>
       </c>
       <c r="J38">
-        <v>-0.001476954147637378</v>
+        <v>-0.01548398097449316</v>
       </c>
       <c r="K38">
-        <v>0.08781742428217425</v>
+        <v>0.09800451378132054</v>
       </c>
       <c r="L38">
-        <v>0.08781742428217425</v>
+        <v>0.09800451378132054</v>
       </c>
       <c r="M38">
-        <v>0.08781742428217425</v>
+        <v>0.09800451378132054</v>
       </c>
       <c r="N38">
-        <v>0.08781742428217425</v>
+        <v>0.09800451378132054</v>
       </c>
       <c r="O38">
-        <v>0.08781742428217425</v>
+        <v>0.09800451378132054</v>
       </c>
       <c r="P38">
-        <v>-0.0002045293820452938</v>
+        <v>0.008050357508599337</v>
       </c>
       <c r="Q38">
-        <v>0.0775621807876218</v>
+        <v>0.0918405872865717</v>
       </c>
       <c r="R38">
-        <v>0.0775621807876218</v>
+        <v>0.0918405872865717</v>
       </c>
       <c r="S38">
-        <v>0.0775621807876218</v>
+        <v>0.0918405872865717</v>
       </c>
       <c r="T38">
-        <v>0.0775621807876218</v>
+        <v>0.0918405872865717</v>
       </c>
     </row>
     <row r="39" spans="1:20">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C39">
-        <v>0.0096168100201681</v>
+        <v>0.02204299243817176</v>
       </c>
       <c r="D39">
-        <v>0.007499023610990236</v>
+        <v>0.01430752569230509</v>
       </c>
       <c r="E39">
-        <v>-0.02012057754920578</v>
+        <v>0.02389399593584369</v>
       </c>
       <c r="F39">
-        <v>0.01988816767888168</v>
+        <v>-0.02280089639532651</v>
       </c>
       <c r="G39">
-        <v>-0.01702423524224235</v>
+        <v>0.02278892351232693</v>
       </c>
       <c r="I39">
-        <v>0.006674395554743955</v>
+        <v>0.02138405046693829</v>
       </c>
       <c r="J39">
-        <v>-0.008950136387119497</v>
+        <v>0.01419324607719648</v>
       </c>
       <c r="K39">
-        <v>0.002607819458078194</v>
+        <v>-0.0008438697788104655</v>
       </c>
       <c r="L39">
-        <v>0.002607819458078194</v>
+        <v>-0.0008438697788104655</v>
       </c>
       <c r="M39">
-        <v>0.002607819458078194</v>
+        <v>-0.0008438697788104655</v>
       </c>
       <c r="N39">
-        <v>0.002607819458078194</v>
+        <v>-0.0008438697788104655</v>
       </c>
       <c r="O39">
-        <v>0.002607819458078194</v>
+        <v>-0.0008438697788104655</v>
       </c>
       <c r="P39">
-        <v>0.01962449920024499</v>
+        <v>-0.02279823614528494</v>
       </c>
       <c r="Q39">
-        <v>0.004783638083836381</v>
+        <v>-0.005680226737191043</v>
       </c>
       <c r="R39">
-        <v>0.004783638083836381</v>
+        <v>-0.005680226737191043</v>
       </c>
       <c r="S39">
-        <v>0.004783638083836381</v>
+        <v>-0.005680226737191043</v>
       </c>
       <c r="T39">
-        <v>0.004783638083836381</v>
+        <v>-0.005680226737191043</v>
       </c>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C40">
-        <v>-0.01375463191754632</v>
+        <v>-0.004969899663592183</v>
       </c>
       <c r="D40">
-        <v>-0.003414632878146329</v>
+        <v>-0.00962075250969926</v>
       </c>
       <c r="E40">
-        <v>-0.01647283893272839</v>
+        <v>0.0001135525564617587</v>
       </c>
       <c r="F40">
-        <v>0.01630750507907505</v>
+        <v>-0.001694376565537134</v>
       </c>
       <c r="G40">
-        <v>-0.01308415840684158</v>
+        <v>0.003137908806842326</v>
       </c>
       <c r="I40">
-        <v>-0.007990208887902087</v>
+        <v>-0.02102751072699236</v>
       </c>
       <c r="J40">
-        <v>0.008954541137184026</v>
+        <v>0.01466894596185356</v>
       </c>
       <c r="K40">
-        <v>-0.004162832261628322</v>
+        <v>0.002432463530194743</v>
       </c>
       <c r="L40">
-        <v>-0.004162832261628322</v>
+        <v>0.002432463530194743</v>
       </c>
       <c r="M40">
-        <v>-0.004162832261628322</v>
+        <v>0.002432463530194743</v>
       </c>
       <c r="N40">
-        <v>-0.004162832261628322</v>
+        <v>0.002432463530194743</v>
       </c>
       <c r="O40">
-        <v>-0.004162832261628322</v>
+        <v>0.002432463530194743</v>
       </c>
       <c r="P40">
-        <v>0.01585368044653681</v>
+        <v>-0.001525870570716728</v>
       </c>
       <c r="Q40">
-        <v>-0.001292012472920125</v>
+        <v>0.0008029123016080049</v>
       </c>
       <c r="R40">
-        <v>-0.001292012472920125</v>
+        <v>0.0008029123016080049</v>
       </c>
       <c r="S40">
-        <v>-0.001292012472920125</v>
+        <v>0.0008029123016080049</v>
       </c>
       <c r="T40">
-        <v>-0.001292012472920125</v>
+        <v>0.0008029123016080049</v>
       </c>
     </row>
     <row r="41" spans="1:20">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C41">
-        <v>-0.04615354328953544</v>
+        <v>-0.04184928023202001</v>
       </c>
       <c r="D41">
-        <v>-0.0122099903780999</v>
+        <v>0.002546723336667552</v>
       </c>
       <c r="E41">
-        <v>0.01053993202539932</v>
+        <v>0.026707391761053</v>
       </c>
       <c r="F41">
-        <v>-0.01110447410704474</v>
+        <v>-0.03339463181866613</v>
       </c>
       <c r="G41">
-        <v>0.0126113197381132</v>
+        <v>0.03409282722020043</v>
       </c>
       <c r="I41">
-        <v>-0.01713763211137632</v>
+        <v>0.01746615903853374</v>
       </c>
       <c r="J41">
-        <v>-0.005871375122015646</v>
+        <v>0.007862506940865035</v>
       </c>
       <c r="K41">
-        <v>-0.01351199647511996</v>
+        <v>-0.02682415068475236</v>
       </c>
       <c r="L41">
-        <v>-0.01351199647511996</v>
+        <v>-0.02682415068475236</v>
       </c>
       <c r="M41">
-        <v>-0.01351199647511996</v>
+        <v>-0.02682415068475236</v>
       </c>
       <c r="N41">
-        <v>-0.01351199647511996</v>
+        <v>-0.02682415068475236</v>
       </c>
       <c r="O41">
-        <v>-0.01351199647511996</v>
+        <v>-0.02682415068475236</v>
       </c>
       <c r="P41">
-        <v>-0.0111171698191717</v>
+        <v>-0.03339195790456185</v>
       </c>
       <c r="Q41">
-        <v>-0.01369737475697375</v>
+        <v>-0.03582629303634833</v>
       </c>
       <c r="R41">
-        <v>-0.01369737475697375</v>
+        <v>-0.03582629303634833</v>
       </c>
       <c r="S41">
-        <v>-0.01369737475697375</v>
+        <v>-0.03582629303634833</v>
       </c>
       <c r="T41">
-        <v>-0.01369737475697375</v>
+        <v>-0.03582629303634833</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:J1"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:Z1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A18:A19"/>

--- a/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
+++ b/biorefineries/oilcane/results/oilcane_spearman_1_agile.xlsx
@@ -115,7 +115,7 @@
     <t>Stream-cellulosic ethanol</t>
   </si>
   <si>
-    <t>Stream-ethanol</t>
+    <t>Stream-advanced ethanol</t>
   </si>
   <si>
     <t>Stream-biodiesel</t>
